--- a/preregistration/VariableSelectionPrePost.xlsx
+++ b/preregistration/VariableSelectionPrePost.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jannis/SynologyDrive/PhD/Phd Research [shared]/04 Migration Trajectories/migration-trajectories/preregistration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66B623F6-9ECB-064C-81D8-BA984C26388B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B2A52D8-5081-F043-96BF-98A166D57C92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="520" windowWidth="38400" windowHeight="19660" xr2:uid="{BC890564-39AD-9B44-8E26-1BDCB403F3FB}"/>
+    <workbookView xWindow="0" yWindow="520" windowWidth="38400" windowHeight="19660" xr2:uid="{BC890564-39AD-9B44-8E26-1BDCB403F3FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Study01" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1523" uniqueCount="641">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2274" uniqueCount="864">
   <si>
     <t>Mood</t>
   </si>
@@ -1969,12 +1969,681 @@
   <si>
     <t xml:space="preserve">Name / Alias  </t>
   </si>
+  <si>
+    <t>What is your Gender?</t>
+  </si>
+  <si>
+    <t>roommate</t>
+  </si>
+  <si>
+    <t>My house-mates are ... (multiple possible)</t>
+  </si>
+  <si>
+    <t>SecNat</t>
+  </si>
+  <si>
+    <t>What is your cultural background?</t>
+  </si>
+  <si>
+    <t>Do you have a second cultural background?</t>
+  </si>
+  <si>
+    <t>DutchLang</t>
+  </si>
+  <si>
+    <t>How good is your Dutch?</t>
+  </si>
+  <si>
+    <t>What is your current occupational status? (multiple possible)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CurrentEducation </t>
+  </si>
+  <si>
+    <t>At which education institute are you?</t>
+  </si>
+  <si>
+    <t>education level</t>
+  </si>
+  <si>
+    <t>What type of programme are you currently following?</t>
+  </si>
+  <si>
+    <t>EduLang</t>
+  </si>
+  <si>
+    <t>My programme is taught in ...</t>
+  </si>
+  <si>
+    <t>RUG_faculty</t>
+  </si>
+  <si>
+    <t>Which faculty are you currently studying at? (if multiple choose most important one)</t>
+  </si>
+  <si>
+    <t>Hanze_school</t>
+  </si>
+  <si>
+    <t>Which Hanze school are you currently at? (if multiple choose most important one)</t>
+  </si>
+  <si>
+    <t>Are you part of an association?  (multiple possible)</t>
+  </si>
+  <si>
+    <t>On average, how many Dutch people do you meet per day?  (in-person interaction for at least 10 minutes; approximate if necessary)</t>
+  </si>
+  <si>
+    <t>AHIMSA01</t>
+  </si>
+  <si>
+    <t>I am most comfortable being with people from...</t>
+  </si>
+  <si>
+    <t>AHIMSA02</t>
+  </si>
+  <si>
+    <t>AHIMSA03</t>
+  </si>
+  <si>
+    <t>AHIMSA04</t>
+  </si>
+  <si>
+    <t>AHIMSA05</t>
+  </si>
+  <si>
+    <t>AHIMSA06</t>
+  </si>
+  <si>
+    <t>AHIMSA07</t>
+  </si>
+  <si>
+    <t>AHIMSA08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My best friends are from... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The people I fit in with best are from... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">My favorite music is from... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">My favorite TV shows are from... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The holidays I celebrate are from... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The food I eat at home is from... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The way I do things and the way I think about things are from... </t>
+  </si>
+  <si>
+    <t>VIA01</t>
+  </si>
+  <si>
+    <t>VIA02</t>
+  </si>
+  <si>
+    <t>VIA03</t>
+  </si>
+  <si>
+    <t>VIA04</t>
+  </si>
+  <si>
+    <t>VIA05</t>
+  </si>
+  <si>
+    <t>VIA06</t>
+  </si>
+  <si>
+    <t>VIA07</t>
+  </si>
+  <si>
+    <t>VIA08</t>
+  </si>
+  <si>
+    <t>VIA09</t>
+  </si>
+  <si>
+    <t>VIA10</t>
+  </si>
+  <si>
+    <t>VIA11</t>
+  </si>
+  <si>
+    <t>VIA12</t>
+  </si>
+  <si>
+    <t>VIA13</t>
+  </si>
+  <si>
+    <t>VIA14</t>
+  </si>
+  <si>
+    <t>VIA15</t>
+  </si>
+  <si>
+    <t>VIA16</t>
+  </si>
+  <si>
+    <t>VIA17</t>
+  </si>
+  <si>
+    <t>VIA18</t>
+  </si>
+  <si>
+    <t>VIA19</t>
+  </si>
+  <si>
+    <t>VIA20</t>
+  </si>
+  <si>
+    <t>I often participate in my heritage cultural traditions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I often participate in mainstream Dutch cultural traditions. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I would be willing to marry a person from my heritage culture. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I would be willing to marry a Dutch person. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I enjoy social activities with people from the same heritage culture as myself. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I enjoy social activities with typical Dutch people. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I am comfortable working with people of the same heritage culture as myself. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I am comfortable working with typical Dutch people. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I enjoy entertainment (e.g., movies, music) from my heritage culture. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I enjoy Dutch entertainment (e.g., movies, music). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I often behave in ways that are typical of my heritage culture. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I often behave in ways that are 'typically Dutch.' </t>
+  </si>
+  <si>
+    <t xml:space="preserve">It is important for me to maintain or develop the practices of my heritage culture. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">It is important for me to maintain or develop Dutch cultural practices. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I believe in the values of my heritage culture. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I believe in mainstream Dutch values. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I enjoy the jokes and humor of my heritage culture. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I enjoy typical Dutch jokes and humor. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I am interested in having friends from my heritage culture. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I am interested in having Dutch friends. </t>
+  </si>
+  <si>
+    <t>SAS01</t>
+  </si>
+  <si>
+    <t>SAS02</t>
+  </si>
+  <si>
+    <t>SAS03</t>
+  </si>
+  <si>
+    <t>SAS04</t>
+  </si>
+  <si>
+    <t>SAS05</t>
+  </si>
+  <si>
+    <t>SAS06</t>
+  </si>
+  <si>
+    <t>SAS07</t>
+  </si>
+  <si>
+    <t>SAS08</t>
+  </si>
+  <si>
+    <t>SAS09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I am usually keenly aware of everything in my environment. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I am usually conscious of my inner feelings. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I am usually concerned about the way I present myself. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I am usually self-conscious about the way I look. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I am usually conscious of what is going on around me. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I am usually reflective about my life. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I am usually concerned about what other people think of me. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I am usually aware of my innermost thoughts. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I am usually conscious of all objects around me. </t>
+  </si>
+  <si>
+    <t>Situational Self Awareness</t>
+  </si>
+  <si>
+    <t>Please rate the following statements:</t>
+  </si>
+  <si>
+    <t>I feel a sense of choice and freedom in the things I undertake.</t>
+  </si>
+  <si>
+    <t>I feel that my decisions reflect what I really want.</t>
+  </si>
+  <si>
+    <t>I feel my choices express who I really am.</t>
+  </si>
+  <si>
+    <t>I feel I have been doing what really interests me.</t>
+  </si>
+  <si>
+    <t>Most of the things I do feel like ‘‘I have to’’.</t>
+  </si>
+  <si>
+    <t>I feel forced to do many things I wouldn’t choose to do.</t>
+  </si>
+  <si>
+    <t>I feel pressured to do too many things.</t>
+  </si>
+  <si>
+    <t>My daily activities feel like a chain of obligations.</t>
+  </si>
+  <si>
+    <t>I feel that the people I care about also care about me.</t>
+  </si>
+  <si>
+    <t>I feel connected with people who care for me, and for whom I care.</t>
+  </si>
+  <si>
+    <t>I feel close and connected with other people who are important to me.</t>
+  </si>
+  <si>
+    <t>I experience a warm feeling with the people I spend time with.</t>
+  </si>
+  <si>
+    <t>I feel excluded from the group I want to belong to.</t>
+  </si>
+  <si>
+    <t>I feel that people who are important to me are cold and distant towards me.</t>
+  </si>
+  <si>
+    <t>I have the impression that people I spend time with dislike me.</t>
+  </si>
+  <si>
+    <t>I feel the relationships I have are just superficial.</t>
+  </si>
+  <si>
+    <t>I feel confident that I can do things well.</t>
+  </si>
+  <si>
+    <t>I feel capable at what I do.</t>
+  </si>
+  <si>
+    <t>I feel competent to achieve my goals.</t>
+  </si>
+  <si>
+    <t>I feel I can successfully complete difficult tasks.</t>
+  </si>
+  <si>
+    <t>I have serious doubts about whether I can do things well.</t>
+  </si>
+  <si>
+    <t>I feel disappointed with many of my performances.</t>
+  </si>
+  <si>
+    <t>I feel insecure about my abilities.</t>
+  </si>
+  <si>
+    <t>I feel like a failure because of the mistakes I make.</t>
+  </si>
+  <si>
+    <t>Awkward</t>
+  </si>
+  <si>
+    <t>Please indicate your agreement or disagreement with each of the following items.</t>
+  </si>
+  <si>
+    <t>In most ways my life is close to my ideal.</t>
+  </si>
+  <si>
+    <t>The conditions of my life are excellent.</t>
+  </si>
+  <si>
+    <t>I am satisfied with my life.</t>
+  </si>
+  <si>
+    <t>So far, I have gotten the important things I want in life.</t>
+  </si>
+  <si>
+    <t>If I could live my life over, I would change almost nothing.</t>
+  </si>
+  <si>
+    <t>&lt;u&gt;In general&lt;/u&gt;, how much do you feel each of the following?</t>
+  </si>
+  <si>
+    <t>Content</t>
+  </si>
+  <si>
+    <t>Rested</t>
+  </si>
+  <si>
+    <t>Restless</t>
+  </si>
+  <si>
+    <t>Bad</t>
+  </si>
+  <si>
+    <t>Worn-out</t>
+  </si>
+  <si>
+    <t>Composed</t>
+  </si>
+  <si>
+    <t>Tired</t>
+  </si>
+  <si>
+    <t>Great</t>
+  </si>
+  <si>
+    <t>Uneasy</t>
+  </si>
+  <si>
+    <t>Energetic</t>
+  </si>
+  <si>
+    <t>Uncomfortable</t>
+  </si>
+  <si>
+    <t>Relaxed</t>
+  </si>
+  <si>
+    <t>Alive and vital</t>
+  </si>
+  <si>
+    <t>Vancouver Index of Acculturation</t>
+  </si>
+  <si>
+    <t>Acculturation</t>
+  </si>
+  <si>
+    <t>Acculturation, Habits, and Interests Multicultural Scale for Adolescents</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>education institution</t>
+  </si>
+  <si>
+    <t>education language</t>
+  </si>
+  <si>
+    <t>RUG faculty</t>
+  </si>
+  <si>
+    <t>Hanze faculty</t>
+  </si>
+  <si>
+    <t>Below is a list of statements dealing with your general feelings about yourself. Please indicate how strongly you agree or disagree with each statement.</t>
+  </si>
+  <si>
+    <t>On the whole, I am satisfied with myself,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At times I think I am no good at all. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I feel that I have a number of good qualities. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I am able to do things as well as most other people. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I feel I do not have much to be proud of. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I certainly feel useless at times. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I feel that I'm a person of worth, at least on an equal plane with others. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I wish I could have more respect for myself. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">All in all, I am inclined to feel that I am a failure. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I take a positive attitude toward myself. </t>
+  </si>
+  <si>
+    <t>If I wanted to go on a trip for a day (for example, to the country side or the sea), I would have a hard time finding someone to go with me.</t>
+  </si>
+  <si>
+    <t>I feel that there is no one I can share my most private worries and fears with.</t>
+  </si>
+  <si>
+    <t>If I were sick, I could easily find someone to help me with my daily chores.</t>
+  </si>
+  <si>
+    <t>There is someone I can turn to for advice about handling problems with my family.</t>
+  </si>
+  <si>
+    <t>If I decide one afternoon that I would like to go to a movie that evening, I could easily find someone to go with me.</t>
+  </si>
+  <si>
+    <t>When I need suggestions on how to deal with a personal problem, I know someone I can turn to.</t>
+  </si>
+  <si>
+    <t>I don't often get invited to do things with others.</t>
+  </si>
+  <si>
+    <t>If I wanted to have lunch with someone, I could easily find someone to join me.</t>
+  </si>
+  <si>
+    <t>If a family crisis arose, it would be difficult to find someone who could give me good advice about how to handle it.</t>
+  </si>
+  <si>
+    <t>If I needed some help in moving to a new house or apartment, I would have a hard time finding someone to help me.</t>
+  </si>
+  <si>
+    <t>... been upset because of something that happened unexpectedly?</t>
+  </si>
+  <si>
+    <t>... felt that you were unable to control the important things in your life?</t>
+  </si>
+  <si>
+    <t>... felt nervous and “stressed”?</t>
+  </si>
+  <si>
+    <t>... felt confident about your ability to handle your personal problems?</t>
+  </si>
+  <si>
+    <t>... felt that things were going your way?</t>
+  </si>
+  <si>
+    <t>... found that you could not cope with all the things that you had to do?</t>
+  </si>
+  <si>
+    <t>... been able to control irritations in your life?</t>
+  </si>
+  <si>
+    <t>... felt that you were on top of things?</t>
+  </si>
+  <si>
+    <t>... been angered because of things that were outside of your control?</t>
+  </si>
+  <si>
+    <t>... felt difficulties were piling up so high that you could not overcome them?</t>
+  </si>
+  <si>
+    <t>You are treated with less courtesy than Dutch people are.</t>
+  </si>
+  <si>
+    <t>You are treated with less respect than Dutch people are.</t>
+  </si>
+  <si>
+    <t>You receive poorer service than Dutch people at restaurants or stores.</t>
+  </si>
+  <si>
+    <t>People act as if they think you are not smart because you are not Dutch.</t>
+  </si>
+  <si>
+    <t>People act as if they are afraid of you because you are not Dutch.</t>
+  </si>
+  <si>
+    <t>People act as if they think you are dishonest because you are not Dutch.</t>
+  </si>
+  <si>
+    <t>People act as if they’re better than you are because you are not Dutch.</t>
+  </si>
+  <si>
+    <t>You are called names or insulted because you are not Dutch.</t>
+  </si>
+  <si>
+    <t>You are threatened or harassed because you are not Dutch.</t>
+  </si>
+  <si>
+    <t>Which of the following events occurred for you?</t>
+  </si>
+  <si>
+    <t>Death of family member</t>
+  </si>
+  <si>
+    <t>Death of close friend</t>
+  </si>
+  <si>
+    <t>Serious illness / injury to family member</t>
+  </si>
+  <si>
+    <t>Serious illness / injury to you</t>
+  </si>
+  <si>
+    <t>Serious illness / injury to close friend</t>
+  </si>
+  <si>
+    <t>Divorce of parents</t>
+  </si>
+  <si>
+    <t>Close friend being arrested</t>
+  </si>
+  <si>
+    <t>You being arrested</t>
+  </si>
+  <si>
+    <t>You being assaulted</t>
+  </si>
+  <si>
+    <t>Parent being laid off work</t>
+  </si>
+  <si>
+    <t>Bad break-up with partner</t>
+  </si>
+  <si>
+    <t>Family having major financial pressures</t>
+  </si>
+  <si>
+    <t>You having major financial pressures</t>
+  </si>
+  <si>
+    <t>Addiction / psychological struggle of family member</t>
+  </si>
+  <si>
+    <t>You struggling with addiction / psychological problem</t>
+  </si>
+  <si>
+    <t>Cheated on by boyfriend / girlfriend</t>
+  </si>
+  <si>
+    <t>Serious academic problems</t>
+  </si>
+  <si>
+    <t>Parents having ongoing conflicts</t>
+  </si>
+  <si>
+    <t>You having ongoing conflict with parents</t>
+  </si>
+  <si>
+    <t>You experiencing abuse / violence at home</t>
+  </si>
+  <si>
+    <t>Unwanted sexual behavior imposed on you</t>
+  </si>
+  <si>
+    <t>Unwanted pregnancy (either you or you being the father)</t>
+  </si>
+  <si>
+    <t>Serious conflict with close friend</t>
+  </si>
+  <si>
+    <t>Serious conflict with boss at work</t>
+  </si>
+  <si>
+    <t>honest</t>
+  </si>
+  <si>
+    <t>NonParticipation</t>
+  </si>
+  <si>
+    <t>ParticipationMot</t>
+  </si>
+  <si>
+    <t>OQ_Questionnaire</t>
+  </si>
+  <si>
+    <t>OQ_Communication</t>
+  </si>
+  <si>
+    <t>OQ_Study</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OQ_other </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1995,6 +2664,19 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2017,24 +2699,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2349,466 +3036,4246 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{443847CB-5175-C042-9BB5-42F592B0F94B}">
-  <dimension ref="A1:KVB53"/>
+  <dimension ref="A1:KRY193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CD1" workbookViewId="0">
-      <selection activeCell="CF6" sqref="CF6"/>
+    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="77.5" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="54.5" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.1640625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="54.5" style="6" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1021 1031:1469 5674:6134 6149:7155 7170:8010" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:1024 1034:1388 5593:6144 6148:7165 7169:7929" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="CD1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="CE1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="CF1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="CG1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="CH1" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="CI1" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="CJ1" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="CK1" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="CL1" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1021 1031:1469 5674:6134 6149:7155 7170:8010" x14ac:dyDescent="0.2">
-      <c r="CF2" s="3" t="s">
+    </row>
+    <row r="2" spans="1:1024 1034:1388 5593:6144 6148:7165 7169:7929" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>787</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>638</v>
       </c>
-      <c r="CG2" s="3" t="s">
+      <c r="D2" s="7" t="s">
         <v>640</v>
       </c>
-    </row>
-    <row r="3" spans="1:1021 1031:1469 5674:6134 6149:7155 7170:8010" x14ac:dyDescent="0.2">
-      <c r="Y3" s="7"/>
-      <c r="AC3" s="7"/>
-      <c r="CF3" s="3" t="s">
+      <c r="E2" s="6">
+        <v>1</v>
+      </c>
+      <c r="F2" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1024 1034:1388 5593:6144 6148:7165 7169:7929" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>639</v>
       </c>
-      <c r="CG3" t="s">
+      <c r="D3" s="6" t="s">
         <v>637</v>
       </c>
-      <c r="ZE3" s="8"/>
-      <c r="ZI3" s="8"/>
-      <c r="ZS3" s="8"/>
-      <c r="ZW3" s="8"/>
-      <c r="AAG3" s="8"/>
-      <c r="AAK3" s="8"/>
-      <c r="AAU3" s="8"/>
-      <c r="AAY3" s="8"/>
-      <c r="ABI3" s="8"/>
-      <c r="ABM3" s="8"/>
-      <c r="ABW3" s="8"/>
-      <c r="ACA3" s="8"/>
-      <c r="ACK3" s="8"/>
-      <c r="ACO3" s="8"/>
-      <c r="ACY3" s="8"/>
-      <c r="ADC3" s="8"/>
-      <c r="ADM3" s="8"/>
-      <c r="ADQ3" s="8"/>
-      <c r="AEA3" s="8"/>
-      <c r="AEE3" s="8"/>
-      <c r="AEO3" s="8"/>
-      <c r="AES3" s="8"/>
-      <c r="AFC3" s="8"/>
-      <c r="AFG3" s="8"/>
-      <c r="AFQ3" s="8"/>
-      <c r="AFU3" s="8"/>
-      <c r="AGE3" s="8"/>
-      <c r="AGI3" s="8"/>
-      <c r="AGS3" s="8"/>
-      <c r="AGW3" s="8"/>
-      <c r="AHG3" s="8"/>
-      <c r="AHK3" s="8"/>
-      <c r="AHU3" s="8"/>
-      <c r="AHY3" s="8"/>
-      <c r="AII3" s="8"/>
-      <c r="AIM3" s="8"/>
-      <c r="AIW3" s="8"/>
-      <c r="AJA3" s="8"/>
-      <c r="AJK3" s="8"/>
-      <c r="AJO3" s="8"/>
-      <c r="AJY3" s="8"/>
-      <c r="AKC3" s="8"/>
-      <c r="AKM3" s="8"/>
-      <c r="AKQ3" s="8"/>
-      <c r="ALA3" s="8"/>
-      <c r="ALE3" s="8"/>
-      <c r="ALO3" s="8"/>
-      <c r="ALS3" s="8"/>
-      <c r="AMC3" s="8"/>
-      <c r="AMG3" s="8"/>
-      <c r="AMQ3" s="8"/>
-      <c r="AMU3" s="8"/>
-      <c r="ANE3" s="8"/>
-      <c r="ANI3" s="8"/>
-      <c r="ANS3" s="8"/>
-      <c r="ANW3" s="8"/>
-      <c r="AOG3" s="8"/>
-      <c r="AOK3" s="8"/>
-      <c r="AOU3" s="8"/>
-      <c r="AOY3" s="8"/>
-      <c r="API3" s="8"/>
-      <c r="APM3" s="8"/>
-      <c r="APW3" s="8"/>
-      <c r="AQA3" s="8"/>
-      <c r="AQK3" s="8"/>
-      <c r="AQO3" s="8"/>
-      <c r="AQY3" s="8"/>
-      <c r="ARC3" s="8"/>
-      <c r="ARM3" s="8"/>
-      <c r="ARQ3" s="8"/>
-      <c r="ASA3" s="8"/>
-      <c r="ASE3" s="8"/>
-      <c r="ASO3" s="8"/>
-      <c r="ASS3" s="8"/>
-      <c r="ATC3" s="8"/>
-      <c r="ATG3" s="8"/>
-      <c r="ATQ3" s="8"/>
-      <c r="ATU3" s="8"/>
-      <c r="AUE3" s="8"/>
-      <c r="AUI3" s="8"/>
-      <c r="AUS3" s="8"/>
-      <c r="AUW3" s="8"/>
-      <c r="AVG3" s="8"/>
-      <c r="AVK3" s="8"/>
-      <c r="AVU3" s="8"/>
-      <c r="AVY3" s="8"/>
-      <c r="AWI3" s="8"/>
-      <c r="AWM3" s="8"/>
-      <c r="AWW3" s="8"/>
-      <c r="AXA3" s="8"/>
-      <c r="AXK3" s="8"/>
-      <c r="AXO3" s="8"/>
-      <c r="AXY3" s="8"/>
-      <c r="AYC3" s="8"/>
-      <c r="AYM3" s="8"/>
-      <c r="AYQ3" s="8"/>
-      <c r="AZA3" s="8"/>
-      <c r="AZE3" s="8"/>
-      <c r="AZO3" s="8"/>
-      <c r="AZS3" s="8"/>
-      <c r="BAC3" s="8"/>
-      <c r="BAG3" s="8"/>
-      <c r="BAQ3" s="8"/>
-      <c r="BAU3" s="8"/>
-      <c r="BBE3" s="8"/>
-      <c r="BBI3" s="8"/>
-      <c r="BBS3" s="8"/>
-      <c r="BBW3" s="8"/>
-      <c r="BCG3" s="8"/>
-      <c r="BCK3" s="8"/>
-      <c r="BCU3" s="8"/>
-      <c r="BCY3" s="8"/>
-      <c r="BDI3" s="8"/>
-      <c r="BDM3" s="8"/>
-      <c r="HJF3" s="8"/>
-      <c r="HJJ3" s="8"/>
-      <c r="HJY3" s="8"/>
-      <c r="HKC3" s="8"/>
-      <c r="HKR3" s="8"/>
-      <c r="HKV3" s="8"/>
-      <c r="HLK3" s="8"/>
-      <c r="HLO3" s="8"/>
-      <c r="HMD3" s="8"/>
-      <c r="HMH3" s="8"/>
-      <c r="HMW3" s="8"/>
-      <c r="HNA3" s="8"/>
-      <c r="HNP3" s="8"/>
-      <c r="HNT3" s="8"/>
-      <c r="HOI3" s="8"/>
-      <c r="HOM3" s="8"/>
-      <c r="HPB3" s="8"/>
-      <c r="HPF3" s="8"/>
-      <c r="HPU3" s="8"/>
-      <c r="HPY3" s="8"/>
-      <c r="HQN3" s="8"/>
-      <c r="HQR3" s="8"/>
-      <c r="HRG3" s="8"/>
-      <c r="HRK3" s="8"/>
-      <c r="HRZ3" s="8"/>
-      <c r="HSD3" s="8"/>
-      <c r="HSS3" s="8"/>
-      <c r="HSW3" s="8"/>
-      <c r="HTL3" s="8"/>
-      <c r="HTP3" s="8"/>
-      <c r="HUE3" s="8"/>
-      <c r="HUI3" s="8"/>
-      <c r="HUX3" s="8"/>
-      <c r="HVB3" s="8"/>
-      <c r="HVQ3" s="8"/>
-      <c r="HVU3" s="8"/>
-      <c r="HWJ3" s="8"/>
-      <c r="HWN3" s="8"/>
-      <c r="HXC3" s="8"/>
-      <c r="HXG3" s="8"/>
-      <c r="HXV3" s="8"/>
-      <c r="HXZ3" s="8"/>
-      <c r="HYO3" s="8"/>
-      <c r="HYS3" s="8"/>
-      <c r="HZH3" s="8"/>
-      <c r="HZL3" s="8"/>
-      <c r="IAA3" s="8"/>
-      <c r="IAE3" s="8"/>
-      <c r="IAT3" s="8"/>
-      <c r="IAX3" s="8"/>
-      <c r="IBM3" s="8"/>
-      <c r="IBQ3" s="8"/>
-      <c r="ICF3" s="8"/>
-      <c r="ICJ3" s="8"/>
-      <c r="ICY3" s="8"/>
-      <c r="IDC3" s="8"/>
-      <c r="IDR3" s="8"/>
-      <c r="IDV3" s="8"/>
-      <c r="IEK3" s="8"/>
-      <c r="IEO3" s="8"/>
-      <c r="IFD3" s="8"/>
-      <c r="IFH3" s="8"/>
-      <c r="IFW3" s="8"/>
-      <c r="IGA3" s="8"/>
-      <c r="IGP3" s="8"/>
-      <c r="IGT3" s="8"/>
-      <c r="IHI3" s="8"/>
-      <c r="IHM3" s="8"/>
-      <c r="IIB3" s="8"/>
-      <c r="IIF3" s="8"/>
-      <c r="IIU3" s="8"/>
-      <c r="IIY3" s="8"/>
-      <c r="IJN3" s="8"/>
-      <c r="IJR3" s="8"/>
-      <c r="IKG3" s="8"/>
-      <c r="IKK3" s="8"/>
-      <c r="IKZ3" s="8"/>
-      <c r="ILD3" s="8"/>
-      <c r="ILS3" s="8"/>
-      <c r="ILW3" s="8"/>
-      <c r="IML3" s="8"/>
-      <c r="IMP3" s="8"/>
-      <c r="INE3" s="8"/>
-      <c r="INI3" s="8"/>
-      <c r="INX3" s="8"/>
-      <c r="IOB3" s="8"/>
-      <c r="IOQ3" s="8"/>
-      <c r="IOU3" s="8"/>
-      <c r="IPJ3" s="8"/>
-      <c r="IPN3" s="8"/>
-      <c r="IQC3" s="8"/>
-      <c r="IQG3" s="8"/>
-      <c r="IQV3" s="8"/>
-      <c r="IQZ3" s="8"/>
-      <c r="IRO3" s="8"/>
-      <c r="IRS3" s="8"/>
-      <c r="ISH3" s="8"/>
-      <c r="ISL3" s="8"/>
-      <c r="ITA3" s="8"/>
-      <c r="ITE3" s="8"/>
-      <c r="ITT3" s="8"/>
-      <c r="ITX3" s="8"/>
-      <c r="IUM3" s="8"/>
-      <c r="IUQ3" s="8"/>
-      <c r="IVF3" s="8"/>
-      <c r="IVJ3" s="8"/>
-      <c r="IVY3" s="8"/>
-      <c r="IWC3" s="8"/>
-      <c r="IWR3" s="8"/>
-      <c r="IWV3" s="8"/>
-      <c r="IXK3" s="8"/>
-      <c r="IXO3" s="8"/>
-      <c r="IYD3" s="8"/>
-      <c r="IYH3" s="8"/>
-      <c r="JFZ3" s="8"/>
-      <c r="JGD3" s="8"/>
-      <c r="JGS3" s="8"/>
-      <c r="JGW3" s="8"/>
-      <c r="JHL3" s="8"/>
-      <c r="JHP3" s="8"/>
-      <c r="JIE3" s="8"/>
-      <c r="JII3" s="8"/>
-      <c r="JIX3" s="8"/>
-      <c r="JJB3" s="8"/>
-      <c r="JJQ3" s="8"/>
-      <c r="JJU3" s="8"/>
-      <c r="JKJ3" s="8"/>
-      <c r="JKN3" s="8"/>
-      <c r="JLC3" s="8"/>
-      <c r="JLG3" s="8"/>
-      <c r="JLV3" s="8"/>
-      <c r="JLZ3" s="8"/>
-      <c r="JMO3" s="8"/>
-      <c r="JMS3" s="8"/>
-      <c r="JNH3" s="8"/>
-      <c r="JNL3" s="8"/>
-      <c r="JOA3" s="8"/>
-      <c r="JOE3" s="8"/>
-      <c r="JOT3" s="8"/>
-      <c r="JOX3" s="8"/>
-      <c r="JPM3" s="8"/>
-      <c r="JPQ3" s="8"/>
-      <c r="JQF3" s="8"/>
-      <c r="JQJ3" s="8"/>
-      <c r="JQY3" s="8"/>
-      <c r="JRC3" s="8"/>
-      <c r="JRR3" s="8"/>
-      <c r="JRV3" s="8"/>
-      <c r="JSK3" s="8"/>
-      <c r="JSO3" s="8"/>
-      <c r="JTD3" s="8"/>
-      <c r="JTH3" s="8"/>
-      <c r="JTW3" s="8"/>
-      <c r="JUA3" s="8"/>
-      <c r="JUP3" s="8"/>
-      <c r="JUT3" s="8"/>
-      <c r="JVI3" s="8"/>
-      <c r="JVM3" s="8"/>
-      <c r="JWB3" s="8"/>
-      <c r="JWF3" s="8"/>
-      <c r="JWU3" s="8"/>
-      <c r="JWY3" s="8"/>
-      <c r="JXN3" s="8"/>
-      <c r="JXR3" s="8"/>
-      <c r="JYG3" s="8"/>
-      <c r="JYK3" s="8"/>
-      <c r="JYZ3" s="8"/>
-      <c r="JZD3" s="8"/>
-      <c r="JZS3" s="8"/>
-      <c r="JZW3" s="8"/>
-      <c r="KAL3" s="8"/>
-      <c r="KAP3" s="8"/>
-      <c r="KBE3" s="8"/>
-      <c r="KBI3" s="8"/>
-      <c r="KBX3" s="8"/>
-      <c r="KCB3" s="8"/>
-      <c r="KCQ3" s="8"/>
-      <c r="KCU3" s="8"/>
-      <c r="KDJ3" s="8"/>
-      <c r="KDN3" s="8"/>
-      <c r="KEC3" s="8"/>
-      <c r="KEG3" s="8"/>
-      <c r="KEV3" s="8"/>
-      <c r="KEZ3" s="8"/>
-      <c r="KFO3" s="8"/>
-      <c r="KFS3" s="8"/>
-      <c r="KGH3" s="8"/>
-      <c r="KGL3" s="8"/>
-      <c r="KHA3" s="8"/>
-      <c r="KHE3" s="8"/>
-      <c r="KHT3" s="8"/>
-      <c r="KHX3" s="8"/>
-      <c r="KIM3" s="8"/>
-      <c r="KIQ3" s="8"/>
-      <c r="KJF3" s="8"/>
-      <c r="KJJ3" s="8"/>
-      <c r="KJY3" s="8"/>
-      <c r="KKC3" s="8"/>
-      <c r="KKR3" s="8"/>
-      <c r="KKV3" s="8"/>
-      <c r="KLK3" s="8"/>
-      <c r="KLO3" s="8"/>
-      <c r="KMD3" s="8"/>
-      <c r="KMH3" s="8"/>
-      <c r="KMW3" s="8"/>
-      <c r="KNA3" s="8"/>
-      <c r="KNP3" s="8"/>
-      <c r="KNT3" s="8"/>
-      <c r="KOI3" s="8"/>
-      <c r="KOM3" s="8"/>
-      <c r="KPB3" s="8"/>
-      <c r="KPF3" s="8"/>
-      <c r="KPU3" s="8"/>
-      <c r="KPY3" s="8"/>
-      <c r="KQN3" s="8"/>
-      <c r="KQR3" s="8"/>
-      <c r="KRG3" s="8"/>
-      <c r="KRK3" s="8"/>
-      <c r="KRZ3" s="8"/>
-      <c r="KSD3" s="8"/>
-      <c r="KSS3" s="8"/>
-      <c r="KSW3" s="8"/>
-      <c r="KTL3" s="8"/>
-      <c r="KTP3" s="8"/>
-      <c r="KUE3" s="8"/>
-      <c r="KUI3" s="8"/>
-      <c r="KUX3" s="8"/>
-      <c r="KVB3" s="8"/>
-    </row>
-    <row r="4" spans="1:1021 1031:1469 5674:6134 6149:7155 7170:8010" x14ac:dyDescent="0.2">
-      <c r="CF4" t="s">
+      <c r="E3" s="6">
+        <v>1</v>
+      </c>
+      <c r="F3" s="6">
+        <v>0</v>
+      </c>
+      <c r="WB3" s="8"/>
+      <c r="WF3" s="8"/>
+      <c r="WP3" s="8"/>
+      <c r="WT3" s="8"/>
+      <c r="XD3" s="8"/>
+      <c r="XH3" s="8"/>
+      <c r="XR3" s="8"/>
+      <c r="XV3" s="8"/>
+      <c r="YF3" s="8"/>
+      <c r="YJ3" s="8"/>
+      <c r="YT3" s="8"/>
+      <c r="YX3" s="8"/>
+      <c r="ZH3" s="8"/>
+      <c r="ZL3" s="8"/>
+      <c r="ZV3" s="8"/>
+      <c r="ZZ3" s="8"/>
+      <c r="AAJ3" s="8"/>
+      <c r="AAN3" s="8"/>
+      <c r="AAX3" s="8"/>
+      <c r="ABB3" s="8"/>
+      <c r="ABL3" s="8"/>
+      <c r="ABP3" s="8"/>
+      <c r="ABZ3" s="8"/>
+      <c r="ACD3" s="8"/>
+      <c r="ACN3" s="8"/>
+      <c r="ACR3" s="8"/>
+      <c r="ADB3" s="8"/>
+      <c r="ADF3" s="8"/>
+      <c r="ADP3" s="8"/>
+      <c r="ADT3" s="8"/>
+      <c r="AED3" s="8"/>
+      <c r="AEH3" s="8"/>
+      <c r="AER3" s="8"/>
+      <c r="AEV3" s="8"/>
+      <c r="AFF3" s="8"/>
+      <c r="AFJ3" s="8"/>
+      <c r="AFT3" s="8"/>
+      <c r="AFX3" s="8"/>
+      <c r="AGH3" s="8"/>
+      <c r="AGL3" s="8"/>
+      <c r="AGV3" s="8"/>
+      <c r="AGZ3" s="8"/>
+      <c r="AHJ3" s="8"/>
+      <c r="AHN3" s="8"/>
+      <c r="AHX3" s="8"/>
+      <c r="AIB3" s="8"/>
+      <c r="AIL3" s="8"/>
+      <c r="AIP3" s="8"/>
+      <c r="AIZ3" s="8"/>
+      <c r="AJD3" s="8"/>
+      <c r="AJN3" s="8"/>
+      <c r="AJR3" s="8"/>
+      <c r="AKB3" s="8"/>
+      <c r="AKF3" s="8"/>
+      <c r="AKP3" s="8"/>
+      <c r="AKT3" s="8"/>
+      <c r="ALD3" s="8"/>
+      <c r="ALH3" s="8"/>
+      <c r="ALR3" s="8"/>
+      <c r="ALV3" s="8"/>
+      <c r="AMF3" s="8"/>
+      <c r="AMJ3" s="8"/>
+      <c r="AMT3" s="8"/>
+      <c r="AMX3" s="8"/>
+      <c r="ANH3" s="8"/>
+      <c r="ANL3" s="8"/>
+      <c r="ANV3" s="8"/>
+      <c r="ANZ3" s="8"/>
+      <c r="AOJ3" s="8"/>
+      <c r="AON3" s="8"/>
+      <c r="AOX3" s="8"/>
+      <c r="APB3" s="8"/>
+      <c r="APL3" s="8"/>
+      <c r="APP3" s="8"/>
+      <c r="APZ3" s="8"/>
+      <c r="AQD3" s="8"/>
+      <c r="AQN3" s="8"/>
+      <c r="AQR3" s="8"/>
+      <c r="ARB3" s="8"/>
+      <c r="ARF3" s="8"/>
+      <c r="ARP3" s="8"/>
+      <c r="ART3" s="8"/>
+      <c r="ASD3" s="8"/>
+      <c r="ASH3" s="8"/>
+      <c r="ASR3" s="8"/>
+      <c r="ASV3" s="8"/>
+      <c r="ATF3" s="8"/>
+      <c r="ATJ3" s="8"/>
+      <c r="ATT3" s="8"/>
+      <c r="ATX3" s="8"/>
+      <c r="AUH3" s="8"/>
+      <c r="AUL3" s="8"/>
+      <c r="AUV3" s="8"/>
+      <c r="AUZ3" s="8"/>
+      <c r="AVJ3" s="8"/>
+      <c r="AVN3" s="8"/>
+      <c r="AVX3" s="8"/>
+      <c r="AWB3" s="8"/>
+      <c r="AWL3" s="8"/>
+      <c r="AWP3" s="8"/>
+      <c r="AWZ3" s="8"/>
+      <c r="AXD3" s="8"/>
+      <c r="AXN3" s="8"/>
+      <c r="AXR3" s="8"/>
+      <c r="AYB3" s="8"/>
+      <c r="AYF3" s="8"/>
+      <c r="AYP3" s="8"/>
+      <c r="AYT3" s="8"/>
+      <c r="AZD3" s="8"/>
+      <c r="AZH3" s="8"/>
+      <c r="AZR3" s="8"/>
+      <c r="AZV3" s="8"/>
+      <c r="BAF3" s="8"/>
+      <c r="BAJ3" s="8"/>
+      <c r="HGC3" s="8"/>
+      <c r="HGG3" s="8"/>
+      <c r="HGV3" s="8"/>
+      <c r="HGZ3" s="8"/>
+      <c r="HHO3" s="8"/>
+      <c r="HHS3" s="8"/>
+      <c r="HIH3" s="8"/>
+      <c r="HIL3" s="8"/>
+      <c r="HJA3" s="8"/>
+      <c r="HJE3" s="8"/>
+      <c r="HJT3" s="8"/>
+      <c r="HJX3" s="8"/>
+      <c r="HKM3" s="8"/>
+      <c r="HKQ3" s="8"/>
+      <c r="HLF3" s="8"/>
+      <c r="HLJ3" s="8"/>
+      <c r="HLY3" s="8"/>
+      <c r="HMC3" s="8"/>
+      <c r="HMR3" s="8"/>
+      <c r="HMV3" s="8"/>
+      <c r="HNK3" s="8"/>
+      <c r="HNO3" s="8"/>
+      <c r="HOD3" s="8"/>
+      <c r="HOH3" s="8"/>
+      <c r="HOW3" s="8"/>
+      <c r="HPA3" s="8"/>
+      <c r="HPP3" s="8"/>
+      <c r="HPT3" s="8"/>
+      <c r="HQI3" s="8"/>
+      <c r="HQM3" s="8"/>
+      <c r="HRB3" s="8"/>
+      <c r="HRF3" s="8"/>
+      <c r="HRU3" s="8"/>
+      <c r="HRY3" s="8"/>
+      <c r="HSN3" s="8"/>
+      <c r="HSR3" s="8"/>
+      <c r="HTG3" s="8"/>
+      <c r="HTK3" s="8"/>
+      <c r="HTZ3" s="8"/>
+      <c r="HUD3" s="8"/>
+      <c r="HUS3" s="8"/>
+      <c r="HUW3" s="8"/>
+      <c r="HVL3" s="8"/>
+      <c r="HVP3" s="8"/>
+      <c r="HWE3" s="8"/>
+      <c r="HWI3" s="8"/>
+      <c r="HWX3" s="8"/>
+      <c r="HXB3" s="8"/>
+      <c r="HXQ3" s="8"/>
+      <c r="HXU3" s="8"/>
+      <c r="HYJ3" s="8"/>
+      <c r="HYN3" s="8"/>
+      <c r="HZC3" s="8"/>
+      <c r="HZG3" s="8"/>
+      <c r="HZV3" s="8"/>
+      <c r="HZZ3" s="8"/>
+      <c r="IAO3" s="8"/>
+      <c r="IAS3" s="8"/>
+      <c r="IBH3" s="8"/>
+      <c r="IBL3" s="8"/>
+      <c r="ICA3" s="8"/>
+      <c r="ICE3" s="8"/>
+      <c r="ICT3" s="8"/>
+      <c r="ICX3" s="8"/>
+      <c r="IDM3" s="8"/>
+      <c r="IDQ3" s="8"/>
+      <c r="IEF3" s="8"/>
+      <c r="IEJ3" s="8"/>
+      <c r="IEY3" s="8"/>
+      <c r="IFC3" s="8"/>
+      <c r="IFR3" s="8"/>
+      <c r="IFV3" s="8"/>
+      <c r="IGK3" s="8"/>
+      <c r="IGO3" s="8"/>
+      <c r="IHD3" s="8"/>
+      <c r="IHH3" s="8"/>
+      <c r="IHW3" s="8"/>
+      <c r="IIA3" s="8"/>
+      <c r="IIP3" s="8"/>
+      <c r="IIT3" s="8"/>
+      <c r="IJI3" s="8"/>
+      <c r="IJM3" s="8"/>
+      <c r="IKB3" s="8"/>
+      <c r="IKF3" s="8"/>
+      <c r="IKU3" s="8"/>
+      <c r="IKY3" s="8"/>
+      <c r="ILN3" s="8"/>
+      <c r="ILR3" s="8"/>
+      <c r="IMG3" s="8"/>
+      <c r="IMK3" s="8"/>
+      <c r="IMZ3" s="8"/>
+      <c r="IND3" s="8"/>
+      <c r="INS3" s="8"/>
+      <c r="INW3" s="8"/>
+      <c r="IOL3" s="8"/>
+      <c r="IOP3" s="8"/>
+      <c r="IPE3" s="8"/>
+      <c r="IPI3" s="8"/>
+      <c r="IPX3" s="8"/>
+      <c r="IQB3" s="8"/>
+      <c r="IQQ3" s="8"/>
+      <c r="IQU3" s="8"/>
+      <c r="IRJ3" s="8"/>
+      <c r="IRN3" s="8"/>
+      <c r="ISC3" s="8"/>
+      <c r="ISG3" s="8"/>
+      <c r="ISV3" s="8"/>
+      <c r="ISZ3" s="8"/>
+      <c r="ITO3" s="8"/>
+      <c r="ITS3" s="8"/>
+      <c r="IUH3" s="8"/>
+      <c r="IUL3" s="8"/>
+      <c r="IVA3" s="8"/>
+      <c r="IVE3" s="8"/>
+      <c r="JCW3" s="8"/>
+      <c r="JDA3" s="8"/>
+      <c r="JDP3" s="8"/>
+      <c r="JDT3" s="8"/>
+      <c r="JEI3" s="8"/>
+      <c r="JEM3" s="8"/>
+      <c r="JFB3" s="8"/>
+      <c r="JFF3" s="8"/>
+      <c r="JFU3" s="8"/>
+      <c r="JFY3" s="8"/>
+      <c r="JGN3" s="8"/>
+      <c r="JGR3" s="8"/>
+      <c r="JHG3" s="8"/>
+      <c r="JHK3" s="8"/>
+      <c r="JHZ3" s="8"/>
+      <c r="JID3" s="8"/>
+      <c r="JIS3" s="8"/>
+      <c r="JIW3" s="8"/>
+      <c r="JJL3" s="8"/>
+      <c r="JJP3" s="8"/>
+      <c r="JKE3" s="8"/>
+      <c r="JKI3" s="8"/>
+      <c r="JKX3" s="8"/>
+      <c r="JLB3" s="8"/>
+      <c r="JLQ3" s="8"/>
+      <c r="JLU3" s="8"/>
+      <c r="JMJ3" s="8"/>
+      <c r="JMN3" s="8"/>
+      <c r="JNC3" s="8"/>
+      <c r="JNG3" s="8"/>
+      <c r="JNV3" s="8"/>
+      <c r="JNZ3" s="8"/>
+      <c r="JOO3" s="8"/>
+      <c r="JOS3" s="8"/>
+      <c r="JPH3" s="8"/>
+      <c r="JPL3" s="8"/>
+      <c r="JQA3" s="8"/>
+      <c r="JQE3" s="8"/>
+      <c r="JQT3" s="8"/>
+      <c r="JQX3" s="8"/>
+      <c r="JRM3" s="8"/>
+      <c r="JRQ3" s="8"/>
+      <c r="JSF3" s="8"/>
+      <c r="JSJ3" s="8"/>
+      <c r="JSY3" s="8"/>
+      <c r="JTC3" s="8"/>
+      <c r="JTR3" s="8"/>
+      <c r="JTV3" s="8"/>
+      <c r="JUK3" s="8"/>
+      <c r="JUO3" s="8"/>
+      <c r="JVD3" s="8"/>
+      <c r="JVH3" s="8"/>
+      <c r="JVW3" s="8"/>
+      <c r="JWA3" s="8"/>
+      <c r="JWP3" s="8"/>
+      <c r="JWT3" s="8"/>
+      <c r="JXI3" s="8"/>
+      <c r="JXM3" s="8"/>
+      <c r="JYB3" s="8"/>
+      <c r="JYF3" s="8"/>
+      <c r="JYU3" s="8"/>
+      <c r="JYY3" s="8"/>
+      <c r="JZN3" s="8"/>
+      <c r="JZR3" s="8"/>
+      <c r="KAG3" s="8"/>
+      <c r="KAK3" s="8"/>
+      <c r="KAZ3" s="8"/>
+      <c r="KBD3" s="8"/>
+      <c r="KBS3" s="8"/>
+      <c r="KBW3" s="8"/>
+      <c r="KCL3" s="8"/>
+      <c r="KCP3" s="8"/>
+      <c r="KDE3" s="8"/>
+      <c r="KDI3" s="8"/>
+      <c r="KDX3" s="8"/>
+      <c r="KEB3" s="8"/>
+      <c r="KEQ3" s="8"/>
+      <c r="KEU3" s="8"/>
+      <c r="KFJ3" s="8"/>
+      <c r="KFN3" s="8"/>
+      <c r="KGC3" s="8"/>
+      <c r="KGG3" s="8"/>
+      <c r="KGV3" s="8"/>
+      <c r="KGZ3" s="8"/>
+      <c r="KHO3" s="8"/>
+      <c r="KHS3" s="8"/>
+      <c r="KIH3" s="8"/>
+      <c r="KIL3" s="8"/>
+      <c r="KJA3" s="8"/>
+      <c r="KJE3" s="8"/>
+      <c r="KJT3" s="8"/>
+      <c r="KJX3" s="8"/>
+      <c r="KKM3" s="8"/>
+      <c r="KKQ3" s="8"/>
+      <c r="KLF3" s="8"/>
+      <c r="KLJ3" s="8"/>
+      <c r="KLY3" s="8"/>
+      <c r="KMC3" s="8"/>
+      <c r="KMR3" s="8"/>
+      <c r="KMV3" s="8"/>
+      <c r="KNK3" s="8"/>
+      <c r="KNO3" s="8"/>
+      <c r="KOD3" s="8"/>
+      <c r="KOH3" s="8"/>
+      <c r="KOW3" s="8"/>
+      <c r="KPA3" s="8"/>
+      <c r="KPP3" s="8"/>
+      <c r="KPT3" s="8"/>
+      <c r="KQI3" s="8"/>
+      <c r="KQM3" s="8"/>
+      <c r="KRB3" s="8"/>
+      <c r="KRF3" s="8"/>
+      <c r="KRU3" s="8"/>
+      <c r="KRY3" s="8"/>
+    </row>
+    <row r="4" spans="1:1024 1034:1388 5593:6144 6148:7165 7169:7929" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>786</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>635</v>
       </c>
-      <c r="CG4" t="s">
+      <c r="D4" s="6" t="s">
         <v>636</v>
       </c>
-    </row>
-    <row r="5" spans="1:1021 1031:1469 5674:6134 6149:7155 7170:8010" x14ac:dyDescent="0.2">
-      <c r="CF5" t="s">
+      <c r="E4" s="6">
+        <v>1</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1024 1034:1388 5593:6144 6148:7165 7169:7929" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="CG5" t="s">
+      <c r="C5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B53" s="3"/>
-      <c r="D53" s="4"/>
+      <c r="E5" s="6">
+        <v>1</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1024 1034:1388 5593:6144 6148:7165 7169:7929" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>641</v>
+      </c>
+      <c r="E6" s="6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1024 1034:1388 5593:6144 6148:7165 7169:7929" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="6">
+        <v>1</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1024 1034:1388 5593:6144 6148:7165 7169:7929" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>642</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>642</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>643</v>
+      </c>
+      <c r="E8" s="6">
+        <v>1</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1024 1034:1388 5593:6144 6148:7165 7169:7929" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>525</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>645</v>
+      </c>
+      <c r="E9" s="6">
+        <v>1</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1024 1034:1388 5593:6144 6148:7165 7169:7929" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>525</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>644</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>646</v>
+      </c>
+      <c r="E10" s="6">
+        <v>1</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1024 1034:1388 5593:6144 6148:7165 7169:7929" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="6">
+        <v>1</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1024 1034:1388 5593:6144 6148:7165 7169:7929" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="6">
+        <v>1</v>
+      </c>
+      <c r="F12" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1024 1034:1388 5593:6144 6148:7165 7169:7929" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>647</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>648</v>
+      </c>
+      <c r="E13" s="6">
+        <v>1</v>
+      </c>
+      <c r="F13" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1024 1034:1388 5593:6144 6148:7165 7169:7929" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>649</v>
+      </c>
+      <c r="E14" s="6">
+        <v>1</v>
+      </c>
+      <c r="F14" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1024 1034:1388 5593:6144 6148:7165 7169:7929" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>788</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>650</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>651</v>
+      </c>
+      <c r="E15" s="6">
+        <v>1</v>
+      </c>
+      <c r="F15" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1024 1034:1388 5593:6144 6148:7165 7169:7929" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>652</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>652</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>653</v>
+      </c>
+      <c r="E16" s="6">
+        <v>1</v>
+      </c>
+      <c r="F16" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>789</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>654</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>655</v>
+      </c>
+      <c r="E17" s="6">
+        <v>1</v>
+      </c>
+      <c r="F17" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>790</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>656</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>657</v>
+      </c>
+      <c r="E18" s="6">
+        <v>1</v>
+      </c>
+      <c r="F18" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>791</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>658</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>659</v>
+      </c>
+      <c r="E19" s="6">
+        <v>1</v>
+      </c>
+      <c r="F19" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="E20" s="6">
+        <v>1</v>
+      </c>
+      <c r="F20" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" t="s">
+        <v>661</v>
+      </c>
+      <c r="E21" s="6">
+        <v>1</v>
+      </c>
+      <c r="F21" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" s="6">
+        <v>1</v>
+      </c>
+      <c r="F22" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
+        <v>784</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>785</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>662</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>663</v>
+      </c>
+      <c r="E23" s="6">
+        <v>1</v>
+      </c>
+      <c r="F23" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
+        <v>784</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>785</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>664</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>671</v>
+      </c>
+      <c r="E24" s="6">
+        <v>1</v>
+      </c>
+      <c r="F24" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="s">
+        <v>784</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>785</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>665</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>672</v>
+      </c>
+      <c r="E25" s="6">
+        <v>1</v>
+      </c>
+      <c r="F25" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="6" t="s">
+        <v>784</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>785</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>666</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>673</v>
+      </c>
+      <c r="E26" s="6">
+        <v>1</v>
+      </c>
+      <c r="F26" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="6" t="s">
+        <v>784</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>785</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>667</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>674</v>
+      </c>
+      <c r="E27" s="6">
+        <v>1</v>
+      </c>
+      <c r="F27" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="6" t="s">
+        <v>784</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>785</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>668</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>675</v>
+      </c>
+      <c r="E28" s="6">
+        <v>1</v>
+      </c>
+      <c r="F28" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="6" t="s">
+        <v>784</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>785</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>669</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>676</v>
+      </c>
+      <c r="E29" s="6">
+        <v>1</v>
+      </c>
+      <c r="F29" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="6" t="s">
+        <v>784</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>785</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>670</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>677</v>
+      </c>
+      <c r="E30" s="6">
+        <v>1</v>
+      </c>
+      <c r="F30" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="6" t="s">
+        <v>784</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>783</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>678</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>698</v>
+      </c>
+      <c r="E31" s="6">
+        <v>1</v>
+      </c>
+      <c r="F31" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="6" t="s">
+        <v>784</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>783</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>679</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>699</v>
+      </c>
+      <c r="E32" s="6">
+        <v>1</v>
+      </c>
+      <c r="F32" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="6" t="s">
+        <v>784</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>783</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>680</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>700</v>
+      </c>
+      <c r="E33" s="6">
+        <v>1</v>
+      </c>
+      <c r="F33" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="6" t="s">
+        <v>784</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>783</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>681</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>701</v>
+      </c>
+      <c r="E34" s="6">
+        <v>1</v>
+      </c>
+      <c r="F34" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="6" t="s">
+        <v>784</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>783</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>682</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>702</v>
+      </c>
+      <c r="E35" s="6">
+        <v>1</v>
+      </c>
+      <c r="F35" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="6" t="s">
+        <v>784</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>783</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>683</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>703</v>
+      </c>
+      <c r="E36" s="6">
+        <v>1</v>
+      </c>
+      <c r="F36" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="6" t="s">
+        <v>784</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>783</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>684</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>704</v>
+      </c>
+      <c r="E37" s="6">
+        <v>1</v>
+      </c>
+      <c r="F37" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="6" t="s">
+        <v>784</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>783</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>685</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>705</v>
+      </c>
+      <c r="E38" s="6">
+        <v>1</v>
+      </c>
+      <c r="F38" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="6" t="s">
+        <v>784</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>783</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>686</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>706</v>
+      </c>
+      <c r="E39" s="6">
+        <v>1</v>
+      </c>
+      <c r="F39" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="6" t="s">
+        <v>784</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>783</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>687</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>707</v>
+      </c>
+      <c r="E40" s="6">
+        <v>1</v>
+      </c>
+      <c r="F40" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="6" t="s">
+        <v>784</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>783</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>688</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>708</v>
+      </c>
+      <c r="E41" s="6">
+        <v>1</v>
+      </c>
+      <c r="F41" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="6" t="s">
+        <v>784</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>783</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>689</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>709</v>
+      </c>
+      <c r="E42" s="6">
+        <v>1</v>
+      </c>
+      <c r="F42" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="6" t="s">
+        <v>784</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>783</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>690</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>710</v>
+      </c>
+      <c r="E43" s="6">
+        <v>1</v>
+      </c>
+      <c r="F43" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="6" t="s">
+        <v>784</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>783</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>691</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>711</v>
+      </c>
+      <c r="E44" s="6">
+        <v>1</v>
+      </c>
+      <c r="F44" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="6" t="s">
+        <v>784</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>783</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>692</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>712</v>
+      </c>
+      <c r="E45" s="6">
+        <v>1</v>
+      </c>
+      <c r="F45" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="6" t="s">
+        <v>784</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>783</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>693</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>713</v>
+      </c>
+      <c r="E46" s="6">
+        <v>1</v>
+      </c>
+      <c r="F46" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="6" t="s">
+        <v>784</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>783</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>694</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>714</v>
+      </c>
+      <c r="E47" s="6">
+        <v>1</v>
+      </c>
+      <c r="F47" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="6" t="s">
+        <v>784</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>783</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>695</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>715</v>
+      </c>
+      <c r="E48" s="6">
+        <v>1</v>
+      </c>
+      <c r="F48" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="6" t="s">
+        <v>784</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>783</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>696</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>716</v>
+      </c>
+      <c r="E49" s="6">
+        <v>1</v>
+      </c>
+      <c r="F49" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="6" t="s">
+        <v>784</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>783</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>697</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>717</v>
+      </c>
+      <c r="E50" s="6">
+        <v>1</v>
+      </c>
+      <c r="F50" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>157</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>736</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>718</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="E51" s="6">
+        <v>1</v>
+      </c>
+      <c r="F51" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>157</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>736</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>719</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>728</v>
+      </c>
+      <c r="E52" s="6">
+        <v>1</v>
+      </c>
+      <c r="F52" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>157</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>736</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>720</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>729</v>
+      </c>
+      <c r="E53" s="6">
+        <v>1</v>
+      </c>
+      <c r="F53" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>157</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>736</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>721</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>730</v>
+      </c>
+      <c r="E54" s="6">
+        <v>1</v>
+      </c>
+      <c r="F54" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>157</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>736</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>722</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>731</v>
+      </c>
+      <c r="E55" s="6">
+        <v>1</v>
+      </c>
+      <c r="F55" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>157</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>736</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>723</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>732</v>
+      </c>
+      <c r="E56" s="6">
+        <v>1</v>
+      </c>
+      <c r="F56" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>157</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>736</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>724</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>733</v>
+      </c>
+      <c r="E57" s="6">
+        <v>1</v>
+      </c>
+      <c r="F57" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>157</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>736</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>725</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>734</v>
+      </c>
+      <c r="E58" s="6">
+        <v>1</v>
+      </c>
+      <c r="F58" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>157</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>736</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>726</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>735</v>
+      </c>
+      <c r="E59" s="6">
+        <v>1</v>
+      </c>
+      <c r="F59" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>523</v>
+      </c>
+      <c r="B60" t="s">
+        <v>524</v>
+      </c>
+      <c r="C60" t="s">
+        <v>441</v>
+      </c>
+      <c r="D60" s="10" t="s">
+        <v>737</v>
+      </c>
+      <c r="E60" s="6">
+        <v>1</v>
+      </c>
+      <c r="F60" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>523</v>
+      </c>
+      <c r="B61" t="s">
+        <v>524</v>
+      </c>
+      <c r="C61" t="s">
+        <v>442</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>738</v>
+      </c>
+      <c r="E61" s="6">
+        <v>1</v>
+      </c>
+      <c r="F61" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>523</v>
+      </c>
+      <c r="B62" t="s">
+        <v>524</v>
+      </c>
+      <c r="C62" t="s">
+        <v>444</v>
+      </c>
+      <c r="D62" s="10" t="s">
+        <v>739</v>
+      </c>
+      <c r="E62" s="6">
+        <v>1</v>
+      </c>
+      <c r="F62" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>523</v>
+      </c>
+      <c r="B63" t="s">
+        <v>524</v>
+      </c>
+      <c r="C63" t="s">
+        <v>446</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>740</v>
+      </c>
+      <c r="E63" s="6">
+        <v>1</v>
+      </c>
+      <c r="F63" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>523</v>
+      </c>
+      <c r="B64" t="s">
+        <v>524</v>
+      </c>
+      <c r="C64" t="s">
+        <v>448</v>
+      </c>
+      <c r="D64" s="10" t="s">
+        <v>741</v>
+      </c>
+      <c r="E64" s="6">
+        <v>1</v>
+      </c>
+      <c r="F64" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>523</v>
+      </c>
+      <c r="B65" t="s">
+        <v>524</v>
+      </c>
+      <c r="C65" t="s">
+        <v>450</v>
+      </c>
+      <c r="D65" s="10" t="s">
+        <v>742</v>
+      </c>
+      <c r="E65" s="6">
+        <v>1</v>
+      </c>
+      <c r="F65" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>523</v>
+      </c>
+      <c r="B66" t="s">
+        <v>524</v>
+      </c>
+      <c r="C66" t="s">
+        <v>452</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>743</v>
+      </c>
+      <c r="E66" s="6">
+        <v>1</v>
+      </c>
+      <c r="F66" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>523</v>
+      </c>
+      <c r="B67" t="s">
+        <v>524</v>
+      </c>
+      <c r="C67" t="s">
+        <v>454</v>
+      </c>
+      <c r="D67" s="10" t="s">
+        <v>744</v>
+      </c>
+      <c r="E67" s="6">
+        <v>1</v>
+      </c>
+      <c r="F67" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>523</v>
+      </c>
+      <c r="B68" t="s">
+        <v>524</v>
+      </c>
+      <c r="C68" t="s">
+        <v>456</v>
+      </c>
+      <c r="D68" s="10" t="s">
+        <v>745</v>
+      </c>
+      <c r="E68" s="6">
+        <v>1</v>
+      </c>
+      <c r="F68" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>523</v>
+      </c>
+      <c r="B69" t="s">
+        <v>524</v>
+      </c>
+      <c r="C69" t="s">
+        <v>458</v>
+      </c>
+      <c r="D69" s="10" t="s">
+        <v>746</v>
+      </c>
+      <c r="E69" s="6">
+        <v>1</v>
+      </c>
+      <c r="F69" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>523</v>
+      </c>
+      <c r="B70" t="s">
+        <v>524</v>
+      </c>
+      <c r="C70" t="s">
+        <v>460</v>
+      </c>
+      <c r="D70" s="10" t="s">
+        <v>747</v>
+      </c>
+      <c r="E70" s="6">
+        <v>1</v>
+      </c>
+      <c r="F70" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>523</v>
+      </c>
+      <c r="B71" t="s">
+        <v>524</v>
+      </c>
+      <c r="C71" t="s">
+        <v>462</v>
+      </c>
+      <c r="D71" s="10" t="s">
+        <v>748</v>
+      </c>
+      <c r="E71" s="6">
+        <v>1</v>
+      </c>
+      <c r="F71" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>523</v>
+      </c>
+      <c r="B72" t="s">
+        <v>524</v>
+      </c>
+      <c r="C72" t="s">
+        <v>464</v>
+      </c>
+      <c r="D72" s="10" t="s">
+        <v>749</v>
+      </c>
+      <c r="E72" s="6">
+        <v>1</v>
+      </c>
+      <c r="F72" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>523</v>
+      </c>
+      <c r="B73" t="s">
+        <v>524</v>
+      </c>
+      <c r="C73" t="s">
+        <v>466</v>
+      </c>
+      <c r="D73" s="10" t="s">
+        <v>737</v>
+      </c>
+      <c r="E73" s="6">
+        <v>1</v>
+      </c>
+      <c r="F73" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>523</v>
+      </c>
+      <c r="B74" t="s">
+        <v>524</v>
+      </c>
+      <c r="C74" t="s">
+        <v>467</v>
+      </c>
+      <c r="D74" s="10" t="s">
+        <v>750</v>
+      </c>
+      <c r="E74" s="6">
+        <v>1</v>
+      </c>
+      <c r="F74" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>523</v>
+      </c>
+      <c r="B75" t="s">
+        <v>524</v>
+      </c>
+      <c r="C75" t="s">
+        <v>469</v>
+      </c>
+      <c r="D75" s="10" t="s">
+        <v>751</v>
+      </c>
+      <c r="E75" s="6">
+        <v>1</v>
+      </c>
+      <c r="F75" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>523</v>
+      </c>
+      <c r="B76" t="s">
+        <v>524</v>
+      </c>
+      <c r="C76" t="s">
+        <v>471</v>
+      </c>
+      <c r="D76" s="10" t="s">
+        <v>752</v>
+      </c>
+      <c r="E76" s="6">
+        <v>1</v>
+      </c>
+      <c r="F76" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>523</v>
+      </c>
+      <c r="B77" t="s">
+        <v>524</v>
+      </c>
+      <c r="C77" t="s">
+        <v>473</v>
+      </c>
+      <c r="D77" s="10" t="s">
+        <v>753</v>
+      </c>
+      <c r="E77" s="6">
+        <v>1</v>
+      </c>
+      <c r="F77" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>523</v>
+      </c>
+      <c r="B78" t="s">
+        <v>524</v>
+      </c>
+      <c r="C78" t="s">
+        <v>475</v>
+      </c>
+      <c r="D78" s="10" t="s">
+        <v>754</v>
+      </c>
+      <c r="E78" s="6">
+        <v>1</v>
+      </c>
+      <c r="F78" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>523</v>
+      </c>
+      <c r="B79" t="s">
+        <v>524</v>
+      </c>
+      <c r="C79" t="s">
+        <v>477</v>
+      </c>
+      <c r="D79" s="10" t="s">
+        <v>755</v>
+      </c>
+      <c r="E79" s="6">
+        <v>1</v>
+      </c>
+      <c r="F79" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>523</v>
+      </c>
+      <c r="B80" t="s">
+        <v>524</v>
+      </c>
+      <c r="C80" t="s">
+        <v>479</v>
+      </c>
+      <c r="D80" s="10" t="s">
+        <v>756</v>
+      </c>
+      <c r="E80" s="6">
+        <v>1</v>
+      </c>
+      <c r="F80" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>523</v>
+      </c>
+      <c r="B81" t="s">
+        <v>524</v>
+      </c>
+      <c r="C81" t="s">
+        <v>481</v>
+      </c>
+      <c r="D81" s="10" t="s">
+        <v>757</v>
+      </c>
+      <c r="E81" s="6">
+        <v>1</v>
+      </c>
+      <c r="F81" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>523</v>
+      </c>
+      <c r="B82" t="s">
+        <v>524</v>
+      </c>
+      <c r="C82" t="s">
+        <v>483</v>
+      </c>
+      <c r="D82" s="10" t="s">
+        <v>758</v>
+      </c>
+      <c r="E82" s="6">
+        <v>1</v>
+      </c>
+      <c r="F82" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>523</v>
+      </c>
+      <c r="B83" t="s">
+        <v>524</v>
+      </c>
+      <c r="C83" t="s">
+        <v>485</v>
+      </c>
+      <c r="D83" s="10" t="s">
+        <v>759</v>
+      </c>
+      <c r="E83" s="6">
+        <v>1</v>
+      </c>
+      <c r="F83" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>523</v>
+      </c>
+      <c r="B84" t="s">
+        <v>524</v>
+      </c>
+      <c r="C84" t="s">
+        <v>487</v>
+      </c>
+      <c r="D84" s="10" t="s">
+        <v>760</v>
+      </c>
+      <c r="E84" s="6">
+        <v>1</v>
+      </c>
+      <c r="F84" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>523</v>
+      </c>
+      <c r="B85" t="s">
+        <v>524</v>
+      </c>
+      <c r="C85" t="s">
+        <v>489</v>
+      </c>
+      <c r="D85" s="10" t="s">
+        <v>761</v>
+      </c>
+      <c r="E85" s="6">
+        <v>1</v>
+      </c>
+      <c r="F85" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>17</v>
+      </c>
+      <c r="B86" t="s">
+        <v>62</v>
+      </c>
+      <c r="C86" t="s">
+        <v>406</v>
+      </c>
+      <c r="D86" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E86" s="6">
+        <v>1</v>
+      </c>
+      <c r="F86" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>17</v>
+      </c>
+      <c r="B87" t="s">
+        <v>62</v>
+      </c>
+      <c r="C87" t="s">
+        <v>65</v>
+      </c>
+      <c r="D87" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E87" s="6">
+        <v>1</v>
+      </c>
+      <c r="F87" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>17</v>
+      </c>
+      <c r="B88" t="s">
+        <v>62</v>
+      </c>
+      <c r="C88" t="s">
+        <v>409</v>
+      </c>
+      <c r="D88" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E88" s="6">
+        <v>1</v>
+      </c>
+      <c r="F88" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>17</v>
+      </c>
+      <c r="B89" t="s">
+        <v>62</v>
+      </c>
+      <c r="C89" t="s">
+        <v>67</v>
+      </c>
+      <c r="D89" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E89" s="6">
+        <v>1</v>
+      </c>
+      <c r="F89" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>17</v>
+      </c>
+      <c r="B90" t="s">
+        <v>62</v>
+      </c>
+      <c r="C90" t="s">
+        <v>412</v>
+      </c>
+      <c r="D90" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E90" s="6">
+        <v>1</v>
+      </c>
+      <c r="F90" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>17</v>
+      </c>
+      <c r="B91" t="s">
+        <v>62</v>
+      </c>
+      <c r="C91" t="s">
+        <v>69</v>
+      </c>
+      <c r="D91" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="E91" s="6">
+        <v>1</v>
+      </c>
+      <c r="F91" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>17</v>
+      </c>
+      <c r="B92" t="s">
+        <v>62</v>
+      </c>
+      <c r="C92" t="s">
+        <v>415</v>
+      </c>
+      <c r="D92" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E92" s="6">
+        <v>1</v>
+      </c>
+      <c r="F92" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>17</v>
+      </c>
+      <c r="B93" t="s">
+        <v>62</v>
+      </c>
+      <c r="C93" t="s">
+        <v>71</v>
+      </c>
+      <c r="D93" s="10" t="s">
+        <v>762</v>
+      </c>
+      <c r="E93" s="6">
+        <v>1</v>
+      </c>
+      <c r="F93" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>17</v>
+      </c>
+      <c r="B94" t="s">
+        <v>62</v>
+      </c>
+      <c r="C94" t="s">
+        <v>418</v>
+      </c>
+      <c r="D94" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E94" s="6">
+        <v>1</v>
+      </c>
+      <c r="F94" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>17</v>
+      </c>
+      <c r="B95" t="s">
+        <v>62</v>
+      </c>
+      <c r="C95" t="s">
+        <v>73</v>
+      </c>
+      <c r="D95" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E95" s="6">
+        <v>1</v>
+      </c>
+      <c r="F95" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>17</v>
+      </c>
+      <c r="B96" t="s">
+        <v>62</v>
+      </c>
+      <c r="C96" t="s">
+        <v>421</v>
+      </c>
+      <c r="D96" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="E96" s="6">
+        <v>1</v>
+      </c>
+      <c r="F96" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>17</v>
+      </c>
+      <c r="B97" t="s">
+        <v>62</v>
+      </c>
+      <c r="C97" t="s">
+        <v>75</v>
+      </c>
+      <c r="D97" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E97" s="6">
+        <v>1</v>
+      </c>
+      <c r="F97" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>17</v>
+      </c>
+      <c r="B98" t="s">
+        <v>62</v>
+      </c>
+      <c r="C98" t="s">
+        <v>424</v>
+      </c>
+      <c r="D98" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E98" s="6">
+        <v>1</v>
+      </c>
+      <c r="F98" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>157</v>
+      </c>
+      <c r="B99" t="s">
+        <v>182</v>
+      </c>
+      <c r="C99" t="s">
+        <v>439</v>
+      </c>
+      <c r="D99" s="10" t="s">
+        <v>763</v>
+      </c>
+      <c r="E99" s="6">
+        <v>1</v>
+      </c>
+      <c r="F99" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>157</v>
+      </c>
+      <c r="B100" t="s">
+        <v>182</v>
+      </c>
+      <c r="C100" t="s">
+        <v>184</v>
+      </c>
+      <c r="D100" s="10" t="s">
+        <v>764</v>
+      </c>
+      <c r="E100" s="6">
+        <v>1</v>
+      </c>
+      <c r="F100" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>157</v>
+      </c>
+      <c r="B101" t="s">
+        <v>182</v>
+      </c>
+      <c r="C101" t="s">
+        <v>186</v>
+      </c>
+      <c r="D101" s="10" t="s">
+        <v>765</v>
+      </c>
+      <c r="E101" s="6">
+        <v>1</v>
+      </c>
+      <c r="F101" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>157</v>
+      </c>
+      <c r="B102" t="s">
+        <v>182</v>
+      </c>
+      <c r="C102" t="s">
+        <v>188</v>
+      </c>
+      <c r="D102" s="10" t="s">
+        <v>766</v>
+      </c>
+      <c r="E102" s="6">
+        <v>1</v>
+      </c>
+      <c r="F102" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>157</v>
+      </c>
+      <c r="B103" t="s">
+        <v>182</v>
+      </c>
+      <c r="C103" t="s">
+        <v>190</v>
+      </c>
+      <c r="D103" s="10" t="s">
+        <v>767</v>
+      </c>
+      <c r="E103" s="6">
+        <v>1</v>
+      </c>
+      <c r="F103" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>157</v>
+      </c>
+      <c r="B104" t="s">
+        <v>182</v>
+      </c>
+      <c r="C104" t="s">
+        <v>192</v>
+      </c>
+      <c r="D104" s="10" t="s">
+        <v>768</v>
+      </c>
+      <c r="E104" s="6">
+        <v>1</v>
+      </c>
+      <c r="F104" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>157</v>
+      </c>
+      <c r="B105" t="s">
+        <v>0</v>
+      </c>
+      <c r="C105" t="s">
+        <v>491</v>
+      </c>
+      <c r="D105" s="10" t="s">
+        <v>769</v>
+      </c>
+      <c r="E105" s="6">
+        <v>1</v>
+      </c>
+      <c r="F105" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>157</v>
+      </c>
+      <c r="B106" t="s">
+        <v>0</v>
+      </c>
+      <c r="C106" t="s">
+        <v>493</v>
+      </c>
+      <c r="D106" s="10" t="s">
+        <v>770</v>
+      </c>
+      <c r="E106" s="6">
+        <v>1</v>
+      </c>
+      <c r="F106" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>157</v>
+      </c>
+      <c r="B107" t="s">
+        <v>0</v>
+      </c>
+      <c r="C107" t="s">
+        <v>495</v>
+      </c>
+      <c r="D107" s="10" t="s">
+        <v>771</v>
+      </c>
+      <c r="E107" s="6">
+        <v>1</v>
+      </c>
+      <c r="F107" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>157</v>
+      </c>
+      <c r="B108" t="s">
+        <v>0</v>
+      </c>
+      <c r="C108" t="s">
+        <v>497</v>
+      </c>
+      <c r="D108" s="10" t="s">
+        <v>772</v>
+      </c>
+      <c r="E108" s="6">
+        <v>1</v>
+      </c>
+      <c r="F108" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>157</v>
+      </c>
+      <c r="B109" t="s">
+        <v>0</v>
+      </c>
+      <c r="C109" t="s">
+        <v>499</v>
+      </c>
+      <c r="D109" s="10" t="s">
+        <v>773</v>
+      </c>
+      <c r="E109" s="6">
+        <v>1</v>
+      </c>
+      <c r="F109" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>157</v>
+      </c>
+      <c r="B110" t="s">
+        <v>0</v>
+      </c>
+      <c r="C110" t="s">
+        <v>501</v>
+      </c>
+      <c r="D110" s="10" t="s">
+        <v>774</v>
+      </c>
+      <c r="E110" s="6">
+        <v>1</v>
+      </c>
+      <c r="F110" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>157</v>
+      </c>
+      <c r="B111" t="s">
+        <v>0</v>
+      </c>
+      <c r="C111" t="s">
+        <v>503</v>
+      </c>
+      <c r="D111" s="10" t="s">
+        <v>775</v>
+      </c>
+      <c r="E111" s="6">
+        <v>1</v>
+      </c>
+      <c r="F111" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>157</v>
+      </c>
+      <c r="B112" t="s">
+        <v>0</v>
+      </c>
+      <c r="C112" t="s">
+        <v>505</v>
+      </c>
+      <c r="D112" s="10" t="s">
+        <v>776</v>
+      </c>
+      <c r="E112" s="6">
+        <v>1</v>
+      </c>
+      <c r="F112" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>157</v>
+      </c>
+      <c r="B113" t="s">
+        <v>0</v>
+      </c>
+      <c r="C113" t="s">
+        <v>507</v>
+      </c>
+      <c r="D113" s="10" t="s">
+        <v>777</v>
+      </c>
+      <c r="E113" s="6">
+        <v>1</v>
+      </c>
+      <c r="F113" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>157</v>
+      </c>
+      <c r="B114" t="s">
+        <v>0</v>
+      </c>
+      <c r="C114" t="s">
+        <v>509</v>
+      </c>
+      <c r="D114" s="10" t="s">
+        <v>778</v>
+      </c>
+      <c r="E114" s="6">
+        <v>1</v>
+      </c>
+      <c r="F114" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>157</v>
+      </c>
+      <c r="B115" t="s">
+        <v>0</v>
+      </c>
+      <c r="C115" t="s">
+        <v>511</v>
+      </c>
+      <c r="D115" s="10" t="s">
+        <v>779</v>
+      </c>
+      <c r="E115" s="6">
+        <v>1</v>
+      </c>
+      <c r="F115" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>157</v>
+      </c>
+      <c r="B116" t="s">
+        <v>0</v>
+      </c>
+      <c r="C116" t="s">
+        <v>513</v>
+      </c>
+      <c r="D116" s="10" t="s">
+        <v>780</v>
+      </c>
+      <c r="E116" s="6">
+        <v>1</v>
+      </c>
+      <c r="F116" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>157</v>
+      </c>
+      <c r="B117" t="s">
+        <v>0</v>
+      </c>
+      <c r="C117" t="s">
+        <v>515</v>
+      </c>
+      <c r="D117" s="10" t="s">
+        <v>781</v>
+      </c>
+      <c r="E117" s="6">
+        <v>1</v>
+      </c>
+      <c r="F117" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>157</v>
+      </c>
+      <c r="B118" t="s">
+        <v>0</v>
+      </c>
+      <c r="C118" t="s">
+        <v>517</v>
+      </c>
+      <c r="D118" s="10" t="s">
+        <v>782</v>
+      </c>
+      <c r="E118" s="6">
+        <v>1</v>
+      </c>
+      <c r="F118" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>255</v>
+      </c>
+      <c r="B119" t="s">
+        <v>256</v>
+      </c>
+      <c r="C119" t="s">
+        <v>527</v>
+      </c>
+      <c r="D119" s="9" t="s">
+        <v>792</v>
+      </c>
+      <c r="E119" s="6">
+        <v>0</v>
+      </c>
+      <c r="F119" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>255</v>
+      </c>
+      <c r="B120" t="s">
+        <v>256</v>
+      </c>
+      <c r="C120" t="s">
+        <v>258</v>
+      </c>
+      <c r="D120" s="10" t="s">
+        <v>793</v>
+      </c>
+      <c r="E120" s="6">
+        <v>0</v>
+      </c>
+      <c r="F120" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>255</v>
+      </c>
+      <c r="B121" t="s">
+        <v>256</v>
+      </c>
+      <c r="C121" t="s">
+        <v>260</v>
+      </c>
+      <c r="D121" s="10" t="s">
+        <v>794</v>
+      </c>
+      <c r="E121" s="6">
+        <v>0</v>
+      </c>
+      <c r="F121" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>255</v>
+      </c>
+      <c r="B122" t="s">
+        <v>256</v>
+      </c>
+      <c r="C122" t="s">
+        <v>262</v>
+      </c>
+      <c r="D122" s="10" t="s">
+        <v>795</v>
+      </c>
+      <c r="E122" s="6">
+        <v>0</v>
+      </c>
+      <c r="F122" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>255</v>
+      </c>
+      <c r="B123" t="s">
+        <v>256</v>
+      </c>
+      <c r="C123" t="s">
+        <v>264</v>
+      </c>
+      <c r="D123" s="10" t="s">
+        <v>796</v>
+      </c>
+      <c r="E123" s="6">
+        <v>0</v>
+      </c>
+      <c r="F123" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>255</v>
+      </c>
+      <c r="B124" t="s">
+        <v>256</v>
+      </c>
+      <c r="C124" t="s">
+        <v>266</v>
+      </c>
+      <c r="D124" s="10" t="s">
+        <v>797</v>
+      </c>
+      <c r="E124" s="6">
+        <v>0</v>
+      </c>
+      <c r="F124" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>255</v>
+      </c>
+      <c r="B125" t="s">
+        <v>256</v>
+      </c>
+      <c r="C125" t="s">
+        <v>268</v>
+      </c>
+      <c r="D125" s="10" t="s">
+        <v>798</v>
+      </c>
+      <c r="E125" s="6">
+        <v>0</v>
+      </c>
+      <c r="F125" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>255</v>
+      </c>
+      <c r="B126" t="s">
+        <v>256</v>
+      </c>
+      <c r="C126" t="s">
+        <v>270</v>
+      </c>
+      <c r="D126" s="10" t="s">
+        <v>799</v>
+      </c>
+      <c r="E126" s="6">
+        <v>0</v>
+      </c>
+      <c r="F126" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>255</v>
+      </c>
+      <c r="B127" t="s">
+        <v>256</v>
+      </c>
+      <c r="C127" t="s">
+        <v>272</v>
+      </c>
+      <c r="D127" s="10" t="s">
+        <v>800</v>
+      </c>
+      <c r="E127" s="6">
+        <v>0</v>
+      </c>
+      <c r="F127" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>255</v>
+      </c>
+      <c r="B128" t="s">
+        <v>256</v>
+      </c>
+      <c r="C128" t="s">
+        <v>274</v>
+      </c>
+      <c r="D128" s="10" t="s">
+        <v>801</v>
+      </c>
+      <c r="E128" s="6">
+        <v>0</v>
+      </c>
+      <c r="F128" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>255</v>
+      </c>
+      <c r="B129" t="s">
+        <v>256</v>
+      </c>
+      <c r="C129" t="s">
+        <v>276</v>
+      </c>
+      <c r="D129" s="10" t="s">
+        <v>802</v>
+      </c>
+      <c r="E129" s="6">
+        <v>0</v>
+      </c>
+      <c r="F129" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>632</v>
+      </c>
+      <c r="B130" t="s">
+        <v>631</v>
+      </c>
+      <c r="C130" t="s">
+        <v>549</v>
+      </c>
+      <c r="D130" s="6" t="s">
+        <v>627</v>
+      </c>
+      <c r="E130" s="6">
+        <v>0</v>
+      </c>
+      <c r="F130" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>632</v>
+      </c>
+      <c r="B131" t="s">
+        <v>631</v>
+      </c>
+      <c r="C131" t="s">
+        <v>550</v>
+      </c>
+      <c r="D131" s="10" t="s">
+        <v>803</v>
+      </c>
+      <c r="E131" s="6">
+        <v>0</v>
+      </c>
+      <c r="F131" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>632</v>
+      </c>
+      <c r="B132" t="s">
+        <v>631</v>
+      </c>
+      <c r="C132" t="s">
+        <v>552</v>
+      </c>
+      <c r="D132" s="10" t="s">
+        <v>804</v>
+      </c>
+      <c r="E132" s="6">
+        <v>0</v>
+      </c>
+      <c r="F132" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>632</v>
+      </c>
+      <c r="B133" t="s">
+        <v>631</v>
+      </c>
+      <c r="C133" t="s">
+        <v>554</v>
+      </c>
+      <c r="D133" s="10" t="s">
+        <v>805</v>
+      </c>
+      <c r="E133" s="6">
+        <v>0</v>
+      </c>
+      <c r="F133" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>632</v>
+      </c>
+      <c r="B134" t="s">
+        <v>631</v>
+      </c>
+      <c r="C134" t="s">
+        <v>556</v>
+      </c>
+      <c r="D134" s="10" t="s">
+        <v>806</v>
+      </c>
+      <c r="E134" s="6">
+        <v>0</v>
+      </c>
+      <c r="F134" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>632</v>
+      </c>
+      <c r="B135" t="s">
+        <v>631</v>
+      </c>
+      <c r="C135" t="s">
+        <v>558</v>
+      </c>
+      <c r="D135" s="10" t="s">
+        <v>807</v>
+      </c>
+      <c r="E135" s="6">
+        <v>0</v>
+      </c>
+      <c r="F135" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>632</v>
+      </c>
+      <c r="B136" t="s">
+        <v>631</v>
+      </c>
+      <c r="C136" t="s">
+        <v>560</v>
+      </c>
+      <c r="D136" s="10" t="s">
+        <v>808</v>
+      </c>
+      <c r="E136" s="6">
+        <v>0</v>
+      </c>
+      <c r="F136" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>632</v>
+      </c>
+      <c r="B137" t="s">
+        <v>631</v>
+      </c>
+      <c r="C137" t="s">
+        <v>562</v>
+      </c>
+      <c r="D137" s="10" t="s">
+        <v>809</v>
+      </c>
+      <c r="E137" s="6">
+        <v>0</v>
+      </c>
+      <c r="F137" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>632</v>
+      </c>
+      <c r="B138" t="s">
+        <v>631</v>
+      </c>
+      <c r="C138" t="s">
+        <v>564</v>
+      </c>
+      <c r="D138" s="10" t="s">
+        <v>810</v>
+      </c>
+      <c r="E138" s="6">
+        <v>0</v>
+      </c>
+      <c r="F138" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>632</v>
+      </c>
+      <c r="B139" t="s">
+        <v>631</v>
+      </c>
+      <c r="C139" t="s">
+        <v>566</v>
+      </c>
+      <c r="D139" s="10" t="s">
+        <v>811</v>
+      </c>
+      <c r="E139" s="6">
+        <v>0</v>
+      </c>
+      <c r="F139" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>632</v>
+      </c>
+      <c r="B140" t="s">
+        <v>631</v>
+      </c>
+      <c r="C140" t="s">
+        <v>568</v>
+      </c>
+      <c r="D140" s="10" t="s">
+        <v>812</v>
+      </c>
+      <c r="E140" s="6">
+        <v>0</v>
+      </c>
+      <c r="F140" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>634</v>
+      </c>
+      <c r="B141" t="s">
+        <v>633</v>
+      </c>
+      <c r="C141" t="s">
+        <v>528</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="E141" s="6">
+        <v>0</v>
+      </c>
+      <c r="F141" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>634</v>
+      </c>
+      <c r="B142" t="s">
+        <v>633</v>
+      </c>
+      <c r="C142" t="s">
+        <v>529</v>
+      </c>
+      <c r="D142" s="10" t="s">
+        <v>813</v>
+      </c>
+      <c r="E142" s="6">
+        <v>0</v>
+      </c>
+      <c r="F142" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>634</v>
+      </c>
+      <c r="B143" t="s">
+        <v>633</v>
+      </c>
+      <c r="C143" t="s">
+        <v>531</v>
+      </c>
+      <c r="D143" s="10" t="s">
+        <v>814</v>
+      </c>
+      <c r="E143" s="6">
+        <v>0</v>
+      </c>
+      <c r="F143" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>634</v>
+      </c>
+      <c r="B144" t="s">
+        <v>633</v>
+      </c>
+      <c r="C144" t="s">
+        <v>533</v>
+      </c>
+      <c r="D144" s="10" t="s">
+        <v>815</v>
+      </c>
+      <c r="E144" s="6">
+        <v>0</v>
+      </c>
+      <c r="F144" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>634</v>
+      </c>
+      <c r="B145" t="s">
+        <v>633</v>
+      </c>
+      <c r="C145" t="s">
+        <v>535</v>
+      </c>
+      <c r="D145" s="10" t="s">
+        <v>816</v>
+      </c>
+      <c r="E145" s="6">
+        <v>0</v>
+      </c>
+      <c r="F145" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>634</v>
+      </c>
+      <c r="B146" t="s">
+        <v>633</v>
+      </c>
+      <c r="C146" t="s">
+        <v>537</v>
+      </c>
+      <c r="D146" s="10" t="s">
+        <v>817</v>
+      </c>
+      <c r="E146" s="6">
+        <v>0</v>
+      </c>
+      <c r="F146" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>634</v>
+      </c>
+      <c r="B147" t="s">
+        <v>633</v>
+      </c>
+      <c r="C147" t="s">
+        <v>539</v>
+      </c>
+      <c r="D147" s="10" t="s">
+        <v>818</v>
+      </c>
+      <c r="E147" s="6">
+        <v>0</v>
+      </c>
+      <c r="F147" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>634</v>
+      </c>
+      <c r="B148" t="s">
+        <v>633</v>
+      </c>
+      <c r="C148" t="s">
+        <v>541</v>
+      </c>
+      <c r="D148" s="10" t="s">
+        <v>819</v>
+      </c>
+      <c r="E148" s="6">
+        <v>0</v>
+      </c>
+      <c r="F148" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>634</v>
+      </c>
+      <c r="B149" t="s">
+        <v>633</v>
+      </c>
+      <c r="C149" t="s">
+        <v>543</v>
+      </c>
+      <c r="D149" s="10" t="s">
+        <v>820</v>
+      </c>
+      <c r="E149" s="6">
+        <v>0</v>
+      </c>
+      <c r="F149" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>634</v>
+      </c>
+      <c r="B150" t="s">
+        <v>633</v>
+      </c>
+      <c r="C150" t="s">
+        <v>545</v>
+      </c>
+      <c r="D150" s="10" t="s">
+        <v>821</v>
+      </c>
+      <c r="E150" s="6">
+        <v>0</v>
+      </c>
+      <c r="F150" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>634</v>
+      </c>
+      <c r="B151" t="s">
+        <v>633</v>
+      </c>
+      <c r="C151" t="s">
+        <v>547</v>
+      </c>
+      <c r="D151" s="10" t="s">
+        <v>822</v>
+      </c>
+      <c r="E151" s="6">
+        <v>0</v>
+      </c>
+      <c r="F151" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>234</v>
+      </c>
+      <c r="B152" t="s">
+        <v>235</v>
+      </c>
+      <c r="C152" t="s">
+        <v>526</v>
+      </c>
+      <c r="D152" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="E152" s="6">
+        <v>0</v>
+      </c>
+      <c r="F152" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>234</v>
+      </c>
+      <c r="B153" t="s">
+        <v>235</v>
+      </c>
+      <c r="C153" t="s">
+        <v>237</v>
+      </c>
+      <c r="D153" s="10" t="s">
+        <v>823</v>
+      </c>
+      <c r="E153" s="6">
+        <v>0</v>
+      </c>
+      <c r="F153" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>234</v>
+      </c>
+      <c r="B154" t="s">
+        <v>235</v>
+      </c>
+      <c r="C154" t="s">
+        <v>239</v>
+      </c>
+      <c r="D154" s="10" t="s">
+        <v>824</v>
+      </c>
+      <c r="E154" s="6">
+        <v>0</v>
+      </c>
+      <c r="F154" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>234</v>
+      </c>
+      <c r="B155" t="s">
+        <v>235</v>
+      </c>
+      <c r="C155" t="s">
+        <v>241</v>
+      </c>
+      <c r="D155" s="10" t="s">
+        <v>825</v>
+      </c>
+      <c r="E155" s="6">
+        <v>0</v>
+      </c>
+      <c r="F155" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>234</v>
+      </c>
+      <c r="B156" t="s">
+        <v>235</v>
+      </c>
+      <c r="C156" t="s">
+        <v>243</v>
+      </c>
+      <c r="D156" s="10" t="s">
+        <v>826</v>
+      </c>
+      <c r="E156" s="6">
+        <v>0</v>
+      </c>
+      <c r="F156" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>234</v>
+      </c>
+      <c r="B157" t="s">
+        <v>235</v>
+      </c>
+      <c r="C157" t="s">
+        <v>245</v>
+      </c>
+      <c r="D157" s="10" t="s">
+        <v>827</v>
+      </c>
+      <c r="E157" s="6">
+        <v>0</v>
+      </c>
+      <c r="F157" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>234</v>
+      </c>
+      <c r="B158" t="s">
+        <v>235</v>
+      </c>
+      <c r="C158" t="s">
+        <v>247</v>
+      </c>
+      <c r="D158" s="10" t="s">
+        <v>828</v>
+      </c>
+      <c r="E158" s="6">
+        <v>0</v>
+      </c>
+      <c r="F158" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>234</v>
+      </c>
+      <c r="B159" t="s">
+        <v>235</v>
+      </c>
+      <c r="C159" t="s">
+        <v>249</v>
+      </c>
+      <c r="D159" s="10" t="s">
+        <v>829</v>
+      </c>
+      <c r="E159" s="6">
+        <v>0</v>
+      </c>
+      <c r="F159" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>234</v>
+      </c>
+      <c r="B160" t="s">
+        <v>235</v>
+      </c>
+      <c r="C160" t="s">
+        <v>251</v>
+      </c>
+      <c r="D160" s="10" t="s">
+        <v>830</v>
+      </c>
+      <c r="E160" s="6">
+        <v>0</v>
+      </c>
+      <c r="F160" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>234</v>
+      </c>
+      <c r="B161" t="s">
+        <v>235</v>
+      </c>
+      <c r="C161" t="s">
+        <v>253</v>
+      </c>
+      <c r="D161" s="10" t="s">
+        <v>831</v>
+      </c>
+      <c r="E161" s="6">
+        <v>0</v>
+      </c>
+      <c r="F161" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>630</v>
+      </c>
+      <c r="B162" t="s">
+        <v>630</v>
+      </c>
+      <c r="C162" t="s">
+        <v>570</v>
+      </c>
+      <c r="D162" s="11" t="s">
+        <v>832</v>
+      </c>
+      <c r="E162" s="6">
+        <v>0</v>
+      </c>
+      <c r="F162" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>630</v>
+      </c>
+      <c r="B163" t="s">
+        <v>630</v>
+      </c>
+      <c r="C163" t="s">
+        <v>571</v>
+      </c>
+      <c r="D163" s="10" t="s">
+        <v>833</v>
+      </c>
+      <c r="E163" s="6">
+        <v>0</v>
+      </c>
+      <c r="F163" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>630</v>
+      </c>
+      <c r="B164" t="s">
+        <v>630</v>
+      </c>
+      <c r="C164" t="s">
+        <v>573</v>
+      </c>
+      <c r="D164" s="10" t="s">
+        <v>834</v>
+      </c>
+      <c r="E164" s="6">
+        <v>0</v>
+      </c>
+      <c r="F164" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>630</v>
+      </c>
+      <c r="B165" t="s">
+        <v>630</v>
+      </c>
+      <c r="C165" t="s">
+        <v>575</v>
+      </c>
+      <c r="D165" s="10" t="s">
+        <v>835</v>
+      </c>
+      <c r="E165" s="6">
+        <v>0</v>
+      </c>
+      <c r="F165" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>630</v>
+      </c>
+      <c r="B166" t="s">
+        <v>630</v>
+      </c>
+      <c r="C166" t="s">
+        <v>577</v>
+      </c>
+      <c r="D166" s="10" t="s">
+        <v>836</v>
+      </c>
+      <c r="E166" s="6">
+        <v>0</v>
+      </c>
+      <c r="F166" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>630</v>
+      </c>
+      <c r="B167" t="s">
+        <v>630</v>
+      </c>
+      <c r="C167" t="s">
+        <v>579</v>
+      </c>
+      <c r="D167" s="10" t="s">
+        <v>837</v>
+      </c>
+      <c r="E167" s="6">
+        <v>0</v>
+      </c>
+      <c r="F167" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>630</v>
+      </c>
+      <c r="B168" t="s">
+        <v>630</v>
+      </c>
+      <c r="C168" t="s">
+        <v>581</v>
+      </c>
+      <c r="D168" s="10" t="s">
+        <v>838</v>
+      </c>
+      <c r="E168" s="6">
+        <v>0</v>
+      </c>
+      <c r="F168" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>630</v>
+      </c>
+      <c r="B169" t="s">
+        <v>630</v>
+      </c>
+      <c r="C169" t="s">
+        <v>583</v>
+      </c>
+      <c r="D169" s="10" t="s">
+        <v>839</v>
+      </c>
+      <c r="E169" s="6">
+        <v>0</v>
+      </c>
+      <c r="F169" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>630</v>
+      </c>
+      <c r="B170" t="s">
+        <v>630</v>
+      </c>
+      <c r="C170" t="s">
+        <v>585</v>
+      </c>
+      <c r="D170" s="10" t="s">
+        <v>840</v>
+      </c>
+      <c r="E170" s="6">
+        <v>0</v>
+      </c>
+      <c r="F170" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>630</v>
+      </c>
+      <c r="B171" t="s">
+        <v>630</v>
+      </c>
+      <c r="C171" t="s">
+        <v>587</v>
+      </c>
+      <c r="D171" s="10" t="s">
+        <v>841</v>
+      </c>
+      <c r="E171" s="6">
+        <v>0</v>
+      </c>
+      <c r="F171" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>630</v>
+      </c>
+      <c r="B172" t="s">
+        <v>630</v>
+      </c>
+      <c r="C172" t="s">
+        <v>589</v>
+      </c>
+      <c r="D172" s="10" t="s">
+        <v>842</v>
+      </c>
+      <c r="E172" s="6">
+        <v>0</v>
+      </c>
+      <c r="F172" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>630</v>
+      </c>
+      <c r="B173" t="s">
+        <v>630</v>
+      </c>
+      <c r="C173" t="s">
+        <v>591</v>
+      </c>
+      <c r="D173" s="10" t="s">
+        <v>843</v>
+      </c>
+      <c r="E173" s="6">
+        <v>0</v>
+      </c>
+      <c r="F173" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>630</v>
+      </c>
+      <c r="B174" t="s">
+        <v>630</v>
+      </c>
+      <c r="C174" t="s">
+        <v>593</v>
+      </c>
+      <c r="D174" s="10" t="s">
+        <v>844</v>
+      </c>
+      <c r="E174" s="6">
+        <v>0</v>
+      </c>
+      <c r="F174" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>630</v>
+      </c>
+      <c r="B175" t="s">
+        <v>630</v>
+      </c>
+      <c r="C175" t="s">
+        <v>595</v>
+      </c>
+      <c r="D175" s="10" t="s">
+        <v>845</v>
+      </c>
+      <c r="E175" s="6">
+        <v>0</v>
+      </c>
+      <c r="F175" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>630</v>
+      </c>
+      <c r="B176" t="s">
+        <v>630</v>
+      </c>
+      <c r="C176" t="s">
+        <v>597</v>
+      </c>
+      <c r="D176" s="10" t="s">
+        <v>846</v>
+      </c>
+      <c r="E176" s="6">
+        <v>0</v>
+      </c>
+      <c r="F176" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>630</v>
+      </c>
+      <c r="B177" t="s">
+        <v>630</v>
+      </c>
+      <c r="C177" t="s">
+        <v>599</v>
+      </c>
+      <c r="D177" s="10" t="s">
+        <v>847</v>
+      </c>
+      <c r="E177" s="6">
+        <v>0</v>
+      </c>
+      <c r="F177" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>630</v>
+      </c>
+      <c r="B178" t="s">
+        <v>630</v>
+      </c>
+      <c r="C178" t="s">
+        <v>601</v>
+      </c>
+      <c r="D178" s="10" t="s">
+        <v>848</v>
+      </c>
+      <c r="E178" s="6">
+        <v>0</v>
+      </c>
+      <c r="F178" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>630</v>
+      </c>
+      <c r="B179" t="s">
+        <v>630</v>
+      </c>
+      <c r="C179" t="s">
+        <v>603</v>
+      </c>
+      <c r="D179" s="10" t="s">
+        <v>849</v>
+      </c>
+      <c r="E179" s="6">
+        <v>0</v>
+      </c>
+      <c r="F179" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>630</v>
+      </c>
+      <c r="B180" t="s">
+        <v>630</v>
+      </c>
+      <c r="C180" t="s">
+        <v>605</v>
+      </c>
+      <c r="D180" s="10" t="s">
+        <v>850</v>
+      </c>
+      <c r="E180" s="6">
+        <v>0</v>
+      </c>
+      <c r="F180" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>630</v>
+      </c>
+      <c r="B181" t="s">
+        <v>630</v>
+      </c>
+      <c r="C181" t="s">
+        <v>607</v>
+      </c>
+      <c r="D181" s="10" t="s">
+        <v>851</v>
+      </c>
+      <c r="E181" s="6">
+        <v>0</v>
+      </c>
+      <c r="F181" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>630</v>
+      </c>
+      <c r="B182" t="s">
+        <v>630</v>
+      </c>
+      <c r="C182" t="s">
+        <v>609</v>
+      </c>
+      <c r="D182" s="10" t="s">
+        <v>852</v>
+      </c>
+      <c r="E182" s="6">
+        <v>0</v>
+      </c>
+      <c r="F182" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>630</v>
+      </c>
+      <c r="B183" t="s">
+        <v>630</v>
+      </c>
+      <c r="C183" t="s">
+        <v>611</v>
+      </c>
+      <c r="D183" s="10" t="s">
+        <v>853</v>
+      </c>
+      <c r="E183" s="6">
+        <v>0</v>
+      </c>
+      <c r="F183" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>630</v>
+      </c>
+      <c r="B184" t="s">
+        <v>630</v>
+      </c>
+      <c r="C184" t="s">
+        <v>613</v>
+      </c>
+      <c r="D184" s="10" t="s">
+        <v>854</v>
+      </c>
+      <c r="E184" s="6">
+        <v>0</v>
+      </c>
+      <c r="F184" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>630</v>
+      </c>
+      <c r="B185" t="s">
+        <v>630</v>
+      </c>
+      <c r="C185" t="s">
+        <v>615</v>
+      </c>
+      <c r="D185" s="10" t="s">
+        <v>855</v>
+      </c>
+      <c r="E185" s="6">
+        <v>0</v>
+      </c>
+      <c r="F185" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>630</v>
+      </c>
+      <c r="B186" t="s">
+        <v>630</v>
+      </c>
+      <c r="C186" t="s">
+        <v>617</v>
+      </c>
+      <c r="D186" s="10" t="s">
+        <v>856</v>
+      </c>
+      <c r="E186" s="6">
+        <v>0</v>
+      </c>
+      <c r="F186" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>629</v>
+      </c>
+      <c r="B187" t="s">
+        <v>376</v>
+      </c>
+      <c r="C187" t="s">
+        <v>857</v>
+      </c>
+      <c r="D187" t="s">
+        <v>378</v>
+      </c>
+      <c r="E187" s="6">
+        <v>0</v>
+      </c>
+      <c r="F187" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>629</v>
+      </c>
+      <c r="B188" t="s">
+        <v>376</v>
+      </c>
+      <c r="C188" t="s">
+        <v>858</v>
+      </c>
+      <c r="D188" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="E188" s="6">
+        <v>0</v>
+      </c>
+      <c r="F188" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>629</v>
+      </c>
+      <c r="B189" t="s">
+        <v>376</v>
+      </c>
+      <c r="C189" t="s">
+        <v>859</v>
+      </c>
+      <c r="D189" t="s">
+        <v>382</v>
+      </c>
+      <c r="E189" s="6">
+        <v>0</v>
+      </c>
+      <c r="F189" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>629</v>
+      </c>
+      <c r="B190" t="s">
+        <v>376</v>
+      </c>
+      <c r="C190" t="s">
+        <v>860</v>
+      </c>
+      <c r="D190" t="s">
+        <v>619</v>
+      </c>
+      <c r="E190" s="6">
+        <v>0</v>
+      </c>
+      <c r="F190" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>629</v>
+      </c>
+      <c r="B191" t="s">
+        <v>376</v>
+      </c>
+      <c r="C191" t="s">
+        <v>861</v>
+      </c>
+      <c r="D191" t="s">
+        <v>621</v>
+      </c>
+      <c r="E191" s="6">
+        <v>0</v>
+      </c>
+      <c r="F191" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>629</v>
+      </c>
+      <c r="B192" t="s">
+        <v>376</v>
+      </c>
+      <c r="C192" t="s">
+        <v>862</v>
+      </c>
+      <c r="D192" t="s">
+        <v>623</v>
+      </c>
+      <c r="E192" s="6">
+        <v>0</v>
+      </c>
+      <c r="F192" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>629</v>
+      </c>
+      <c r="B193" t="s">
+        <v>376</v>
+      </c>
+      <c r="C193" t="s">
+        <v>863</v>
+      </c>
+      <c r="D193" t="s">
+        <v>625</v>
+      </c>
+      <c r="E193" s="6">
+        <v>0</v>
+      </c>
+      <c r="F193" s="6">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A51:C51"/>
-  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <conditionalFormatting sqref="E2:F193">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2817,8 +7284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7A4D2B9-9415-D240-AA02-F594DCC81AAF}">
   <dimension ref="A1:I190"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:I1"/>
+    <sheetView topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="A184" sqref="A184:D190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2831,31 +7298,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3009,7 +7476,7 @@
       <c r="C9" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="3" t="s">
         <v>520</v>
       </c>
       <c r="E9">
@@ -3026,10 +7493,10 @@
       <c r="B10" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="3" t="s">
         <v>519</v>
       </c>
       <c r="E10">
@@ -3169,7 +7636,7 @@
       <c r="C17" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="3" t="s">
         <v>521</v>
       </c>
       <c r="E17">
@@ -5569,7 +10036,7 @@
       <c r="C137" t="s">
         <v>528</v>
       </c>
-      <c r="D137" s="5" t="s">
+      <c r="D137" s="3" t="s">
         <v>626</v>
       </c>
       <c r="E137">
@@ -5789,7 +10256,7 @@
       <c r="C148" t="s">
         <v>549</v>
       </c>
-      <c r="D148" s="5" t="s">
+      <c r="D148" s="3" t="s">
         <v>627</v>
       </c>
       <c r="E148">
@@ -6009,7 +10476,7 @@
       <c r="C159" t="s">
         <v>570</v>
       </c>
-      <c r="D159" s="5" t="s">
+      <c r="D159" s="3" t="s">
         <v>628</v>
       </c>
       <c r="E159">
@@ -6529,7 +10996,7 @@
       <c r="C185" t="s">
         <v>379</v>
       </c>
-      <c r="D185" s="5" t="s">
+      <c r="D185" s="3" t="s">
         <v>380</v>
       </c>
       <c r="E185">
@@ -6675,31 +11142,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
